--- a/uniqorn-frontend/public/data/Ultimate_Uniqorn_Games_Master.xlsx
+++ b/uniqorn-frontend/public/data/Ultimate_Uniqorn_Games_Master.xlsx
@@ -533,10 +533,10 @@
         <v>17</v>
       </c>
       <c r="J2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -578,10 +578,10 @@
         <v>2</v>
       </c>
       <c r="J3" t="n">
+        <v>5</v>
+      </c>
+      <c r="K3" t="n">
         <v>3</v>
-      </c>
-      <c r="K3" t="n">
-        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -623,10 +623,10 @@
         <v>14</v>
       </c>
       <c r="J4" t="n">
+        <v>7</v>
+      </c>
+      <c r="K4" t="n">
         <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -668,10 +668,10 @@
         <v>9</v>
       </c>
       <c r="J5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -713,10 +713,10 @@
         <v>11</v>
       </c>
       <c r="J6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -758,10 +758,10 @@
         <v>8</v>
       </c>
       <c r="J7" t="n">
+        <v>5</v>
+      </c>
+      <c r="K7" t="n">
         <v>1</v>
-      </c>
-      <c r="K7" t="n">
-        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -803,10 +803,10 @@
         <v>22</v>
       </c>
       <c r="J8" t="n">
+        <v>3</v>
+      </c>
+      <c r="K8" t="n">
         <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>3</v>
       </c>
     </row>
     <row r="9">
@@ -848,10 +848,10 @@
         <v>17</v>
       </c>
       <c r="J9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
@@ -893,10 +893,10 @@
         <v>11</v>
       </c>
       <c r="J10" t="n">
+        <v>4</v>
+      </c>
+      <c r="K10" t="n">
         <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="11">
@@ -938,10 +938,10 @@
         <v>13</v>
       </c>
       <c r="J11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12">
@@ -983,10 +983,10 @@
         <v>8</v>
       </c>
       <c r="J12" t="n">
+        <v>1</v>
+      </c>
+      <c r="K12" t="n">
         <v>0</v>
-      </c>
-      <c r="K12" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -1028,10 +1028,10 @@
         <v>21</v>
       </c>
       <c r="J13" t="n">
+        <v>2</v>
+      </c>
+      <c r="K13" t="n">
         <v>0</v>
-      </c>
-      <c r="K13" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="14">
@@ -1073,10 +1073,10 @@
         <v>9</v>
       </c>
       <c r="J14" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K14" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15">
@@ -1208,10 +1208,10 @@
         <v>11</v>
       </c>
       <c r="J17" t="n">
+        <v>4</v>
+      </c>
+      <c r="K17" t="n">
         <v>3</v>
-      </c>
-      <c r="K17" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="18">
@@ -1253,10 +1253,10 @@
         <v>12</v>
       </c>
       <c r="J18" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K18" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19">
@@ -1298,10 +1298,10 @@
         <v>5</v>
       </c>
       <c r="J19" t="n">
+        <v>7</v>
+      </c>
+      <c r="K19" t="n">
         <v>3</v>
-      </c>
-      <c r="K19" t="n">
-        <v>7</v>
       </c>
     </row>
     <row r="20">
@@ -1343,10 +1343,10 @@
         <v>16</v>
       </c>
       <c r="J20" t="n">
+        <v>4</v>
+      </c>
+      <c r="K20" t="n">
         <v>1</v>
-      </c>
-      <c r="K20" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="21">
@@ -1388,10 +1388,10 @@
         <v>4</v>
       </c>
       <c r="J21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22">
@@ -1433,10 +1433,10 @@
         <v>15</v>
       </c>
       <c r="J22" t="n">
+        <v>4</v>
+      </c>
+      <c r="K22" t="n">
         <v>3</v>
-      </c>
-      <c r="K22" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="23">
@@ -1478,10 +1478,10 @@
         <v>10</v>
       </c>
       <c r="J23" t="n">
+        <v>2</v>
+      </c>
+      <c r="K23" t="n">
         <v>1</v>
-      </c>
-      <c r="K23" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="24">
@@ -1523,10 +1523,10 @@
         <v>10</v>
       </c>
       <c r="J24" t="n">
+        <v>2</v>
+      </c>
+      <c r="K24" t="n">
         <v>0</v>
-      </c>
-      <c r="K24" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="25">
@@ -1568,10 +1568,10 @@
         <v>14</v>
       </c>
       <c r="J25" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K25" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26">
@@ -1613,10 +1613,10 @@
         <v>1</v>
       </c>
       <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
         <v>3</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1703,10 +1703,10 @@
         <v>8</v>
       </c>
       <c r="J28" t="n">
+        <v>1</v>
+      </c>
+      <c r="K28" t="n">
         <v>7</v>
-      </c>
-      <c r="K28" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -1793,10 +1793,10 @@
         <v>10</v>
       </c>
       <c r="J30" t="n">
+        <v>2</v>
+      </c>
+      <c r="K30" t="n">
         <v>5</v>
-      </c>
-      <c r="K30" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="31">
@@ -1838,10 +1838,10 @@
         <v>3</v>
       </c>
       <c r="J31" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32">
@@ -1883,10 +1883,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
+        <v>2</v>
+      </c>
+      <c r="K32" t="n">
         <v>6</v>
-      </c>
-      <c r="K32" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="33">
@@ -1928,10 +1928,10 @@
         <v>14</v>
       </c>
       <c r="J33" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34">
@@ -2063,10 +2063,10 @@
         <v>21</v>
       </c>
       <c r="J36" t="n">
+        <v>2</v>
+      </c>
+      <c r="K36" t="n">
         <v>1</v>
-      </c>
-      <c r="K36" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="37">
@@ -2108,10 +2108,10 @@
         <v>15</v>
       </c>
       <c r="J37" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K37" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38">
@@ -2198,10 +2198,10 @@
         <v>12</v>
       </c>
       <c r="J39" t="n">
+        <v>1</v>
+      </c>
+      <c r="K39" t="n">
         <v>0</v>
-      </c>
-      <c r="K39" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -2243,10 +2243,10 @@
         <v>11</v>
       </c>
       <c r="J40" t="n">
+        <v>6</v>
+      </c>
+      <c r="K40" t="n">
         <v>3</v>
-      </c>
-      <c r="K40" t="n">
-        <v>6</v>
       </c>
     </row>
     <row r="41">
@@ -2288,10 +2288,10 @@
         <v>6</v>
       </c>
       <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
         <v>5</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -2333,10 +2333,10 @@
         <v>21</v>
       </c>
       <c r="J42" t="n">
+        <v>3</v>
+      </c>
+      <c r="K42" t="n">
         <v>0</v>
-      </c>
-      <c r="K42" t="n">
-        <v>3</v>
       </c>
     </row>
     <row r="43">
@@ -2378,10 +2378,10 @@
         <v>7</v>
       </c>
       <c r="J43" t="n">
+        <v>2</v>
+      </c>
+      <c r="K43" t="n">
         <v>1</v>
-      </c>
-      <c r="K43" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="44">
@@ -2423,10 +2423,10 @@
         <v>11</v>
       </c>
       <c r="J44" t="n">
+        <v>6</v>
+      </c>
+      <c r="K44" t="n">
         <v>3</v>
-      </c>
-      <c r="K44" t="n">
-        <v>6</v>
       </c>
     </row>
     <row r="45">
@@ -2468,10 +2468,10 @@
         <v>9</v>
       </c>
       <c r="J45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K45" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46">
@@ -2513,10 +2513,10 @@
         <v>9</v>
       </c>
       <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
         <v>6</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -2558,10 +2558,10 @@
         <v>2</v>
       </c>
       <c r="J47" t="n">
+        <v>5</v>
+      </c>
+      <c r="K47" t="n">
         <v>1</v>
-      </c>
-      <c r="K47" t="n">
-        <v>5</v>
       </c>
     </row>
     <row r="48">
@@ -2603,10 +2603,10 @@
         <v>3</v>
       </c>
       <c r="J48" t="n">
+        <v>4</v>
+      </c>
+      <c r="K48" t="n">
         <v>6</v>
-      </c>
-      <c r="K48" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="49">
@@ -2648,10 +2648,10 @@
         <v>5</v>
       </c>
       <c r="J49" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K49" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="50">
@@ -2693,10 +2693,10 @@
         <v>4</v>
       </c>
       <c r="J50" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K50" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="51">
@@ -2738,10 +2738,10 @@
         <v>24</v>
       </c>
       <c r="J51" t="n">
+        <v>2</v>
+      </c>
+      <c r="K51" t="n">
         <v>0</v>
-      </c>
-      <c r="K51" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="52">
@@ -2783,10 +2783,10 @@
         <v>13</v>
       </c>
       <c r="J52" t="n">
+        <v>4</v>
+      </c>
+      <c r="K52" t="n">
         <v>0</v>
-      </c>
-      <c r="K52" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="53">
@@ -2828,10 +2828,10 @@
         <v>13</v>
       </c>
       <c r="J53" t="n">
+        <v>3</v>
+      </c>
+      <c r="K53" t="n">
         <v>0</v>
-      </c>
-      <c r="K53" t="n">
-        <v>3</v>
       </c>
     </row>
     <row r="54">
@@ -2918,10 +2918,10 @@
         <v>3</v>
       </c>
       <c r="J55" t="n">
+        <v>1</v>
+      </c>
+      <c r="K55" t="n">
         <v>5</v>
-      </c>
-      <c r="K55" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -3008,10 +3008,10 @@
         <v>2</v>
       </c>
       <c r="J57" t="n">
+        <v>6</v>
+      </c>
+      <c r="K57" t="n">
         <v>3</v>
-      </c>
-      <c r="K57" t="n">
-        <v>6</v>
       </c>
     </row>
     <row r="58">
@@ -3053,10 +3053,10 @@
         <v>14</v>
       </c>
       <c r="J58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59">
@@ -3098,10 +3098,10 @@
         <v>10</v>
       </c>
       <c r="J59" t="n">
+        <v>4</v>
+      </c>
+      <c r="K59" t="n">
         <v>1</v>
-      </c>
-      <c r="K59" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="60">
@@ -3143,10 +3143,10 @@
         <v>7</v>
       </c>
       <c r="J60" t="n">
+        <v>10</v>
+      </c>
+      <c r="K60" t="n">
         <v>0</v>
-      </c>
-      <c r="K60" t="n">
-        <v>10</v>
       </c>
     </row>
     <row r="61">
@@ -3188,10 +3188,10 @@
         <v>25</v>
       </c>
       <c r="J61" t="n">
+        <v>1</v>
+      </c>
+      <c r="K61" t="n">
         <v>0</v>
-      </c>
-      <c r="K61" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="62">
@@ -3233,10 +3233,10 @@
         <v>13</v>
       </c>
       <c r="J62" t="n">
+        <v>3</v>
+      </c>
+      <c r="K62" t="n">
         <v>6</v>
-      </c>
-      <c r="K62" t="n">
-        <v>3</v>
       </c>
     </row>
     <row r="63">
@@ -3278,10 +3278,10 @@
         <v>7</v>
       </c>
       <c r="J63" t="n">
+        <v>0</v>
+      </c>
+      <c r="K63" t="n">
         <v>7</v>
-      </c>
-      <c r="K63" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -3323,10 +3323,10 @@
         <v>13</v>
       </c>
       <c r="J64" t="n">
+        <v>2</v>
+      </c>
+      <c r="K64" t="n">
         <v>0</v>
-      </c>
-      <c r="K64" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="65">
@@ -3368,10 +3368,10 @@
         <v>10</v>
       </c>
       <c r="J65" t="n">
+        <v>1</v>
+      </c>
+      <c r="K65" t="n">
         <v>0</v>
-      </c>
-      <c r="K65" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -3413,10 +3413,10 @@
         <v>1</v>
       </c>
       <c r="J66" t="n">
+        <v>1</v>
+      </c>
+      <c r="K66" t="n">
         <v>8</v>
-      </c>
-      <c r="K66" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -3458,10 +3458,10 @@
         <v>10</v>
       </c>
       <c r="J67" t="n">
+        <v>10</v>
+      </c>
+      <c r="K67" t="n">
         <v>5</v>
-      </c>
-      <c r="K67" t="n">
-        <v>10</v>
       </c>
     </row>
     <row r="68">
@@ -3503,10 +3503,10 @@
         <v>13</v>
       </c>
       <c r="J68" t="n">
+        <v>2</v>
+      </c>
+      <c r="K68" t="n">
         <v>1</v>
-      </c>
-      <c r="K68" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="69">
@@ -3593,10 +3593,10 @@
         <v>1</v>
       </c>
       <c r="J70" t="n">
+        <v>1</v>
+      </c>
+      <c r="K70" t="n">
         <v>3</v>
-      </c>
-      <c r="K70" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="71">
@@ -3638,10 +3638,10 @@
         <v>22</v>
       </c>
       <c r="J71" t="n">
+        <v>2</v>
+      </c>
+      <c r="K71" t="n">
         <v>1</v>
-      </c>
-      <c r="K71" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="72">
@@ -3683,10 +3683,10 @@
         <v>11</v>
       </c>
       <c r="J72" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K72" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73">
@@ -3728,10 +3728,10 @@
         <v>9</v>
       </c>
       <c r="J73" t="n">
+        <v>1</v>
+      </c>
+      <c r="K73" t="n">
         <v>3</v>
-      </c>
-      <c r="K73" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="74">
@@ -3773,10 +3773,10 @@
         <v>14</v>
       </c>
       <c r="J74" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K74" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75">
@@ -3818,10 +3818,10 @@
         <v>13</v>
       </c>
       <c r="J75" t="n">
+        <v>1</v>
+      </c>
+      <c r="K75" t="n">
         <v>5</v>
-      </c>
-      <c r="K75" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="76">
@@ -3863,10 +3863,10 @@
         <v>11</v>
       </c>
       <c r="J76" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K76" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77">
@@ -3908,10 +3908,10 @@
         <v>14</v>
       </c>
       <c r="J77" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K77" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="78">
@@ -3953,10 +3953,10 @@
         <v>14</v>
       </c>
       <c r="J78" t="n">
+        <v>1</v>
+      </c>
+      <c r="K78" t="n">
         <v>0</v>
-      </c>
-      <c r="K78" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -3998,10 +3998,10 @@
         <v>4</v>
       </c>
       <c r="J79" t="n">
+        <v>6</v>
+      </c>
+      <c r="K79" t="n">
         <v>1</v>
-      </c>
-      <c r="K79" t="n">
-        <v>6</v>
       </c>
     </row>
     <row r="80">
@@ -4043,10 +4043,10 @@
         <v>14</v>
       </c>
       <c r="J80" t="n">
+        <v>4</v>
+      </c>
+      <c r="K80" t="n">
         <v>1</v>
-      </c>
-      <c r="K80" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="81">
@@ -4133,10 +4133,10 @@
         <v>9</v>
       </c>
       <c r="J82" t="n">
+        <v>4</v>
+      </c>
+      <c r="K82" t="n">
         <v>0</v>
-      </c>
-      <c r="K82" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="83">
@@ -4178,10 +4178,10 @@
         <v>10</v>
       </c>
       <c r="J83" t="n">
+        <v>3</v>
+      </c>
+      <c r="K83" t="n">
         <v>6</v>
-      </c>
-      <c r="K83" t="n">
-        <v>3</v>
       </c>
     </row>
     <row r="84">
@@ -4223,10 +4223,10 @@
         <v>1</v>
       </c>
       <c r="J84" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K84" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="85">
@@ -4268,10 +4268,10 @@
         <v>5</v>
       </c>
       <c r="J85" t="n">
+        <v>4</v>
+      </c>
+      <c r="K85" t="n">
         <v>0</v>
-      </c>
-      <c r="K85" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="86">
@@ -4358,10 +4358,10 @@
         <v>5</v>
       </c>
       <c r="J87" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K87" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88">
@@ -4403,10 +4403,10 @@
         <v>3</v>
       </c>
       <c r="J88" t="n">
+        <v>3</v>
+      </c>
+      <c r="K88" t="n">
         <v>7</v>
-      </c>
-      <c r="K88" t="n">
-        <v>3</v>
       </c>
     </row>
     <row r="89">
@@ -4448,10 +4448,10 @@
         <v>6</v>
       </c>
       <c r="J89" t="n">
+        <v>6</v>
+      </c>
+      <c r="K89" t="n">
         <v>3</v>
-      </c>
-      <c r="K89" t="n">
-        <v>6</v>
       </c>
     </row>
     <row r="90">
@@ -4493,10 +4493,10 @@
         <v>4</v>
       </c>
       <c r="J90" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K90" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="91">
@@ -4538,10 +4538,10 @@
         <v>1</v>
       </c>
       <c r="J91" t="n">
+        <v>6</v>
+      </c>
+      <c r="K91" t="n">
         <v>1</v>
-      </c>
-      <c r="K91" t="n">
-        <v>6</v>
       </c>
     </row>
     <row r="92">
@@ -4583,10 +4583,10 @@
         <v>0</v>
       </c>
       <c r="J92" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K92" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93">
@@ -4673,10 +4673,10 @@
         <v>15</v>
       </c>
       <c r="J94" t="n">
+        <v>6</v>
+      </c>
+      <c r="K94" t="n">
         <v>0</v>
-      </c>
-      <c r="K94" t="n">
-        <v>6</v>
       </c>
     </row>
     <row r="95">
@@ -4718,10 +4718,10 @@
         <v>2</v>
       </c>
       <c r="J95" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K95" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="96">
@@ -4763,10 +4763,10 @@
         <v>1</v>
       </c>
       <c r="J96" t="n">
+        <v>3</v>
+      </c>
+      <c r="K96" t="n">
         <v>11</v>
-      </c>
-      <c r="K96" t="n">
-        <v>3</v>
       </c>
     </row>
     <row r="97">
@@ -4853,10 +4853,10 @@
         <v>4</v>
       </c>
       <c r="J98" t="n">
+        <v>0</v>
+      </c>
+      <c r="K98" t="n">
         <v>6</v>
-      </c>
-      <c r="K98" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -4898,10 +4898,10 @@
         <v>12</v>
       </c>
       <c r="J99" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K99" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="100">
@@ -4943,10 +4943,10 @@
         <v>13</v>
       </c>
       <c r="J100" t="n">
+        <v>8</v>
+      </c>
+      <c r="K100" t="n">
         <v>0</v>
-      </c>
-      <c r="K100" t="n">
-        <v>8</v>
       </c>
     </row>
     <row r="101">
@@ -4988,10 +4988,10 @@
         <v>1</v>
       </c>
       <c r="J101" t="n">
+        <v>4</v>
+      </c>
+      <c r="K101" t="n">
         <v>6</v>
-      </c>
-      <c r="K101" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="102">
@@ -5033,10 +5033,10 @@
         <v>3</v>
       </c>
       <c r="J102" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K102" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103">
@@ -5078,10 +5078,10 @@
         <v>4</v>
       </c>
       <c r="J103" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="K103" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104">
@@ -5123,10 +5123,10 @@
         <v>1</v>
       </c>
       <c r="J104" t="n">
+        <v>2</v>
+      </c>
+      <c r="K104" t="n">
         <v>5</v>
-      </c>
-      <c r="K104" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="105">
@@ -5168,10 +5168,10 @@
         <v>3</v>
       </c>
       <c r="J105" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K105" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106">
@@ -5213,10 +5213,10 @@
         <v>5</v>
       </c>
       <c r="J106" t="n">
+        <v>4</v>
+      </c>
+      <c r="K106" t="n">
         <v>6</v>
-      </c>
-      <c r="K106" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="107">
@@ -5258,10 +5258,10 @@
         <v>2</v>
       </c>
       <c r="J107" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K107" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108">
@@ -5303,10 +5303,10 @@
         <v>11</v>
       </c>
       <c r="J108" t="n">
+        <v>8</v>
+      </c>
+      <c r="K108" t="n">
         <v>0</v>
-      </c>
-      <c r="K108" t="n">
-        <v>8</v>
       </c>
     </row>
     <row r="109">
@@ -5348,10 +5348,10 @@
         <v>23</v>
       </c>
       <c r="J109" t="n">
+        <v>6</v>
+      </c>
+      <c r="K109" t="n">
         <v>1</v>
-      </c>
-      <c r="K109" t="n">
-        <v>6</v>
       </c>
     </row>
     <row r="110">
@@ -5393,10 +5393,10 @@
         <v>13</v>
       </c>
       <c r="J110" t="n">
+        <v>9</v>
+      </c>
+      <c r="K110" t="n">
         <v>0</v>
-      </c>
-      <c r="K110" t="n">
-        <v>9</v>
       </c>
     </row>
     <row r="111">
@@ -5438,10 +5438,10 @@
         <v>15</v>
       </c>
       <c r="J111" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K111" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="112">
@@ -5483,10 +5483,10 @@
         <v>13</v>
       </c>
       <c r="J112" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K112" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="113">
@@ -5528,10 +5528,10 @@
         <v>8</v>
       </c>
       <c r="J113" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K113" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114">
@@ -5618,10 +5618,10 @@
         <v>0</v>
       </c>
       <c r="J115" t="n">
+        <v>1</v>
+      </c>
+      <c r="K115" t="n">
         <v>8</v>
-      </c>
-      <c r="K115" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="116">
@@ -5663,10 +5663,10 @@
         <v>7</v>
       </c>
       <c r="J116" t="n">
+        <v>2</v>
+      </c>
+      <c r="K116" t="n">
         <v>7</v>
-      </c>
-      <c r="K116" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="117">
@@ -5708,10 +5708,10 @@
         <v>7</v>
       </c>
       <c r="J117" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="K117" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118">
@@ -5753,10 +5753,10 @@
         <v>4</v>
       </c>
       <c r="J118" t="n">
+        <v>1</v>
+      </c>
+      <c r="K118" t="n">
         <v>6</v>
-      </c>
-      <c r="K118" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="119">
@@ -5798,10 +5798,10 @@
         <v>13</v>
       </c>
       <c r="J119" t="n">
+        <v>0</v>
+      </c>
+      <c r="K119" t="n">
         <v>3</v>
-      </c>
-      <c r="K119" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="120">
@@ -5843,10 +5843,10 @@
         <v>6</v>
       </c>
       <c r="J120" t="n">
+        <v>9</v>
+      </c>
+      <c r="K120" t="n">
         <v>0</v>
-      </c>
-      <c r="K120" t="n">
-        <v>9</v>
       </c>
     </row>
     <row r="121">
@@ -5933,10 +5933,10 @@
         <v>17</v>
       </c>
       <c r="J122" t="n">
+        <v>4</v>
+      </c>
+      <c r="K122" t="n">
         <v>0</v>
-      </c>
-      <c r="K122" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="123">
@@ -5978,10 +5978,10 @@
         <v>9</v>
       </c>
       <c r="J123" t="n">
+        <v>4</v>
+      </c>
+      <c r="K123" t="n">
         <v>9</v>
-      </c>
-      <c r="K123" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="124">
@@ -6023,10 +6023,10 @@
         <v>3</v>
       </c>
       <c r="J124" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="K124" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125">
@@ -6068,10 +6068,10 @@
         <v>5</v>
       </c>
       <c r="J125" t="n">
+        <v>2</v>
+      </c>
+      <c r="K125" t="n">
         <v>10</v>
-      </c>
-      <c r="K125" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="126">
@@ -6113,10 +6113,10 @@
         <v>8</v>
       </c>
       <c r="J126" t="n">
+        <v>1</v>
+      </c>
+      <c r="K126" t="n">
         <v>0</v>
-      </c>
-      <c r="K126" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="127">
@@ -6158,10 +6158,10 @@
         <v>11</v>
       </c>
       <c r="J127" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K127" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="128">
@@ -6203,10 +6203,10 @@
         <v>1</v>
       </c>
       <c r="J128" t="n">
+        <v>6</v>
+      </c>
+      <c r="K128" t="n">
         <v>3</v>
-      </c>
-      <c r="K128" t="n">
-        <v>6</v>
       </c>
     </row>
     <row r="129">
@@ -6248,10 +6248,10 @@
         <v>12</v>
       </c>
       <c r="J129" t="n">
+        <v>3</v>
+      </c>
+      <c r="K129" t="n">
         <v>5</v>
-      </c>
-      <c r="K129" t="n">
-        <v>3</v>
       </c>
     </row>
     <row r="130">
@@ -6338,10 +6338,10 @@
         <v>3</v>
       </c>
       <c r="J131" t="n">
+        <v>1</v>
+      </c>
+      <c r="K131" t="n">
         <v>7</v>
-      </c>
-      <c r="K131" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="132">
@@ -6383,10 +6383,10 @@
         <v>18</v>
       </c>
       <c r="J132" t="n">
+        <v>4</v>
+      </c>
+      <c r="K132" t="n">
         <v>0</v>
-      </c>
-      <c r="K132" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="133">
@@ -6428,10 +6428,10 @@
         <v>11</v>
       </c>
       <c r="J133" t="n">
+        <v>2</v>
+      </c>
+      <c r="K133" t="n">
         <v>0</v>
-      </c>
-      <c r="K133" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="134">
@@ -6473,10 +6473,10 @@
         <v>6</v>
       </c>
       <c r="J134" t="n">
+        <v>4</v>
+      </c>
+      <c r="K134" t="n">
         <v>6</v>
-      </c>
-      <c r="K134" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="135">
@@ -6518,10 +6518,10 @@
         <v>21</v>
       </c>
       <c r="J135" t="n">
+        <v>0</v>
+      </c>
+      <c r="K135" t="n">
         <v>1</v>
-      </c>
-      <c r="K135" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="136">
@@ -6563,10 +6563,10 @@
         <v>0</v>
       </c>
       <c r="J136" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K136" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="137">
@@ -6653,10 +6653,10 @@
         <v>6</v>
       </c>
       <c r="J138" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K138" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="139">
@@ -6698,10 +6698,10 @@
         <v>4</v>
       </c>
       <c r="J139" t="n">
+        <v>0</v>
+      </c>
+      <c r="K139" t="n">
         <v>8</v>
-      </c>
-      <c r="K139" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="140">
@@ -6743,10 +6743,10 @@
         <v>2</v>
       </c>
       <c r="J140" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K140" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141">
@@ -6788,10 +6788,10 @@
         <v>11</v>
       </c>
       <c r="J141" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K141" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="142">
@@ -6833,10 +6833,10 @@
         <v>4</v>
       </c>
       <c r="J142" t="n">
+        <v>5</v>
+      </c>
+      <c r="K142" t="n">
         <v>6</v>
-      </c>
-      <c r="K142" t="n">
-        <v>5</v>
       </c>
     </row>
     <row r="143">
@@ -6878,10 +6878,10 @@
         <v>3</v>
       </c>
       <c r="J143" t="n">
+        <v>8</v>
+      </c>
+      <c r="K143" t="n">
         <v>1</v>
-      </c>
-      <c r="K143" t="n">
-        <v>8</v>
       </c>
     </row>
     <row r="144">
@@ -6923,10 +6923,10 @@
         <v>5</v>
       </c>
       <c r="J144" t="n">
+        <v>0</v>
+      </c>
+      <c r="K144" t="n">
         <v>6</v>
-      </c>
-      <c r="K144" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="145">
@@ -6968,10 +6968,10 @@
         <v>11</v>
       </c>
       <c r="J145" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K145" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="146">
@@ -7013,10 +7013,10 @@
         <v>4</v>
       </c>
       <c r="J146" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="K146" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="147">
@@ -7058,10 +7058,10 @@
         <v>9</v>
       </c>
       <c r="J147" t="n">
+        <v>6</v>
+      </c>
+      <c r="K147" t="n">
         <v>7</v>
-      </c>
-      <c r="K147" t="n">
-        <v>6</v>
       </c>
     </row>
     <row r="148">
@@ -7103,10 +7103,10 @@
         <v>7</v>
       </c>
       <c r="J148" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K148" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149">
@@ -7148,10 +7148,10 @@
         <v>3</v>
       </c>
       <c r="J149" t="n">
+        <v>4</v>
+      </c>
+      <c r="K149" t="n">
         <v>5</v>
-      </c>
-      <c r="K149" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="150">
@@ -7193,10 +7193,10 @@
         <v>0</v>
       </c>
       <c r="J150" t="n">
+        <v>4</v>
+      </c>
+      <c r="K150" t="n">
         <v>5</v>
-      </c>
-      <c r="K150" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="151">
@@ -7238,10 +7238,10 @@
         <v>13</v>
       </c>
       <c r="J151" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K151" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="152">
@@ -7283,10 +7283,10 @@
         <v>2</v>
       </c>
       <c r="J152" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K152" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="153">
@@ -7328,10 +7328,10 @@
         <v>7</v>
       </c>
       <c r="J153" t="n">
+        <v>2</v>
+      </c>
+      <c r="K153" t="n">
         <v>5</v>
-      </c>
-      <c r="K153" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="154">
@@ -7373,10 +7373,10 @@
         <v>2</v>
       </c>
       <c r="J154" t="n">
+        <v>0</v>
+      </c>
+      <c r="K154" t="n">
         <v>7</v>
-      </c>
-      <c r="K154" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="155">
@@ -7418,10 +7418,10 @@
         <v>1</v>
       </c>
       <c r="J155" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="K155" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156">
@@ -7463,10 +7463,10 @@
         <v>11</v>
       </c>
       <c r="J156" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K156" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="157">
@@ -7508,10 +7508,10 @@
         <v>5</v>
       </c>
       <c r="J157" t="n">
+        <v>8</v>
+      </c>
+      <c r="K157" t="n">
         <v>0</v>
-      </c>
-      <c r="K157" t="n">
-        <v>8</v>
       </c>
     </row>
     <row r="158">
@@ -7553,10 +7553,10 @@
         <v>5</v>
       </c>
       <c r="J158" t="n">
+        <v>5</v>
+      </c>
+      <c r="K158" t="n">
         <v>8</v>
-      </c>
-      <c r="K158" t="n">
-        <v>5</v>
       </c>
     </row>
     <row r="159">
@@ -7643,10 +7643,10 @@
         <v>6</v>
       </c>
       <c r="J160" t="n">
+        <v>6</v>
+      </c>
+      <c r="K160" t="n">
         <v>5</v>
-      </c>
-      <c r="K160" t="n">
-        <v>6</v>
       </c>
     </row>
     <row r="161">
@@ -7688,10 +7688,10 @@
         <v>7</v>
       </c>
       <c r="J161" t="n">
+        <v>8</v>
+      </c>
+      <c r="K161" t="n">
         <v>5</v>
-      </c>
-      <c r="K161" t="n">
-        <v>8</v>
       </c>
     </row>
     <row r="162">
@@ -7733,10 +7733,10 @@
         <v>11</v>
       </c>
       <c r="J162" t="n">
+        <v>8</v>
+      </c>
+      <c r="K162" t="n">
         <v>0</v>
-      </c>
-      <c r="K162" t="n">
-        <v>8</v>
       </c>
     </row>
     <row r="163">
@@ -7778,10 +7778,10 @@
         <v>5</v>
       </c>
       <c r="J163" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K163" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164">
@@ -7868,10 +7868,10 @@
         <v>7</v>
       </c>
       <c r="J165" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K165" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166">
@@ -7913,10 +7913,10 @@
         <v>8</v>
       </c>
       <c r="J166" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K166" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="167">
@@ -7958,10 +7958,10 @@
         <v>0</v>
       </c>
       <c r="J167" t="n">
+        <v>8</v>
+      </c>
+      <c r="K167" t="n">
         <v>1</v>
-      </c>
-      <c r="K167" t="n">
-        <v>8</v>
       </c>
     </row>
     <row r="168">
@@ -8003,10 +8003,10 @@
         <v>15</v>
       </c>
       <c r="J168" t="n">
+        <v>6</v>
+      </c>
+      <c r="K168" t="n">
         <v>0</v>
-      </c>
-      <c r="K168" t="n">
-        <v>6</v>
       </c>
     </row>
     <row r="169">
@@ -8048,10 +8048,10 @@
         <v>7</v>
       </c>
       <c r="J169" t="n">
+        <v>0</v>
+      </c>
+      <c r="K169" t="n">
         <v>3</v>
-      </c>
-      <c r="K169" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="170">
@@ -8093,10 +8093,10 @@
         <v>5</v>
       </c>
       <c r="J170" t="n">
+        <v>9</v>
+      </c>
+      <c r="K170" t="n">
         <v>0</v>
-      </c>
-      <c r="K170" t="n">
-        <v>9</v>
       </c>
     </row>
     <row r="171">
@@ -8138,10 +8138,10 @@
         <v>3</v>
       </c>
       <c r="J171" t="n">
+        <v>4</v>
+      </c>
+      <c r="K171" t="n">
         <v>3</v>
-      </c>
-      <c r="K171" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="172">
@@ -8183,10 +8183,10 @@
         <v>9</v>
       </c>
       <c r="J172" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K172" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="173">
@@ -8318,10 +8318,10 @@
         <v>9</v>
       </c>
       <c r="J175" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="K175" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176">
@@ -8363,10 +8363,10 @@
         <v>2</v>
       </c>
       <c r="J176" t="n">
+        <v>3</v>
+      </c>
+      <c r="K176" t="n">
         <v>9</v>
-      </c>
-      <c r="K176" t="n">
-        <v>3</v>
       </c>
     </row>
     <row r="177">
@@ -8408,10 +8408,10 @@
         <v>6</v>
       </c>
       <c r="J177" t="n">
+        <v>4</v>
+      </c>
+      <c r="K177" t="n">
         <v>5</v>
-      </c>
-      <c r="K177" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="178">
@@ -8453,10 +8453,10 @@
         <v>0</v>
       </c>
       <c r="J178" t="n">
+        <v>2</v>
+      </c>
+      <c r="K178" t="n">
         <v>6</v>
-      </c>
-      <c r="K178" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="179">
@@ -8498,10 +8498,10 @@
         <v>2</v>
       </c>
       <c r="J179" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K179" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="180">
@@ -8543,10 +8543,10 @@
         <v>22</v>
       </c>
       <c r="J180" t="n">
+        <v>9</v>
+      </c>
+      <c r="K180" t="n">
         <v>0</v>
-      </c>
-      <c r="K180" t="n">
-        <v>9</v>
       </c>
     </row>
     <row r="181">
@@ -8588,10 +8588,10 @@
         <v>15</v>
       </c>
       <c r="J181" t="n">
+        <v>6</v>
+      </c>
+      <c r="K181" t="n">
         <v>5</v>
-      </c>
-      <c r="K181" t="n">
-        <v>6</v>
       </c>
     </row>
     <row r="182">
@@ -8633,10 +8633,10 @@
         <v>1</v>
       </c>
       <c r="J182" t="n">
+        <v>5</v>
+      </c>
+      <c r="K182" t="n">
         <v>6</v>
-      </c>
-      <c r="K182" t="n">
-        <v>5</v>
       </c>
     </row>
     <row r="183">
@@ -8678,10 +8678,10 @@
         <v>2</v>
       </c>
       <c r="J183" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K183" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184">
@@ -8723,10 +8723,10 @@
         <v>6</v>
       </c>
       <c r="J184" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K184" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185">
@@ -8768,10 +8768,10 @@
         <v>5</v>
       </c>
       <c r="J185" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K185" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186">
@@ -8813,10 +8813,10 @@
         <v>3</v>
       </c>
       <c r="J186" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K186" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="187">
@@ -8858,10 +8858,10 @@
         <v>2</v>
       </c>
       <c r="J187" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K187" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188">
@@ -8903,10 +8903,10 @@
         <v>9</v>
       </c>
       <c r="J188" t="n">
+        <v>1</v>
+      </c>
+      <c r="K188" t="n">
         <v>7</v>
-      </c>
-      <c r="K188" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="189">
@@ -8948,10 +8948,10 @@
         <v>5</v>
       </c>
       <c r="J189" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K189" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="190">
@@ -8993,10 +8993,10 @@
         <v>10</v>
       </c>
       <c r="J190" t="n">
+        <v>4</v>
+      </c>
+      <c r="K190" t="n">
         <v>0</v>
-      </c>
-      <c r="K190" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="191">
@@ -9038,10 +9038,10 @@
         <v>1</v>
       </c>
       <c r="J191" t="n">
+        <v>0</v>
+      </c>
+      <c r="K191" t="n">
         <v>9</v>
-      </c>
-      <c r="K191" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="192">
@@ -9083,10 +9083,10 @@
         <v>13</v>
       </c>
       <c r="J192" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K192" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="193">
@@ -9128,10 +9128,10 @@
         <v>3</v>
       </c>
       <c r="J193" t="n">
+        <v>0</v>
+      </c>
+      <c r="K193" t="n">
         <v>9</v>
-      </c>
-      <c r="K193" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="194">
@@ -9173,10 +9173,10 @@
         <v>4</v>
       </c>
       <c r="J194" t="n">
+        <v>4</v>
+      </c>
+      <c r="K194" t="n">
         <v>6</v>
-      </c>
-      <c r="K194" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="195">
@@ -9218,10 +9218,10 @@
         <v>10</v>
       </c>
       <c r="J195" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K195" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="196">
@@ -9263,10 +9263,10 @@
         <v>3</v>
       </c>
       <c r="J196" t="n">
+        <v>4</v>
+      </c>
+      <c r="K196" t="n">
         <v>5</v>
-      </c>
-      <c r="K196" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="197">
@@ -9308,10 +9308,10 @@
         <v>4</v>
       </c>
       <c r="J197" t="n">
+        <v>0</v>
+      </c>
+      <c r="K197" t="n">
         <v>8</v>
-      </c>
-      <c r="K197" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="198">
@@ -9353,10 +9353,10 @@
         <v>6</v>
       </c>
       <c r="J198" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K198" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="199">
@@ -9398,10 +9398,10 @@
         <v>3</v>
       </c>
       <c r="J199" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="K199" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="200">
@@ -9443,10 +9443,10 @@
         <v>7</v>
       </c>
       <c r="J200" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="K200" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="201">
@@ -9488,10 +9488,10 @@
         <v>2</v>
       </c>
       <c r="J201" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K201" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="202">
@@ -9533,10 +9533,10 @@
         <v>3</v>
       </c>
       <c r="J202" t="n">
+        <v>5</v>
+      </c>
+      <c r="K202" t="n">
         <v>7</v>
-      </c>
-      <c r="K202" t="n">
-        <v>5</v>
       </c>
     </row>
     <row r="203">
@@ -9578,10 +9578,10 @@
         <v>16</v>
       </c>
       <c r="J203" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K203" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="204">
@@ -9623,10 +9623,10 @@
         <v>8</v>
       </c>
       <c r="J204" t="n">
+        <v>4</v>
+      </c>
+      <c r="K204" t="n">
         <v>6</v>
-      </c>
-      <c r="K204" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="205">
@@ -9668,10 +9668,10 @@
         <v>2</v>
       </c>
       <c r="J205" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K205" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="206">
@@ -9713,10 +9713,10 @@
         <v>4</v>
       </c>
       <c r="J206" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K206" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="207">
@@ -9758,10 +9758,10 @@
         <v>1</v>
       </c>
       <c r="J207" t="n">
+        <v>1</v>
+      </c>
+      <c r="K207" t="n">
         <v>8</v>
-      </c>
-      <c r="K207" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="208">
@@ -9803,10 +9803,10 @@
         <v>4</v>
       </c>
       <c r="J208" t="n">
+        <v>1</v>
+      </c>
+      <c r="K208" t="n">
         <v>11</v>
-      </c>
-      <c r="K208" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="209">
@@ -9848,10 +9848,10 @@
         <v>3</v>
       </c>
       <c r="J209" t="n">
+        <v>4</v>
+      </c>
+      <c r="K209" t="n">
         <v>0</v>
-      </c>
-      <c r="K209" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="210">
@@ -9893,10 +9893,10 @@
         <v>1</v>
       </c>
       <c r="J210" t="n">
+        <v>8</v>
+      </c>
+      <c r="K210" t="n">
         <v>3</v>
-      </c>
-      <c r="K210" t="n">
-        <v>8</v>
       </c>
     </row>
     <row r="211">
@@ -9938,10 +9938,10 @@
         <v>4</v>
       </c>
       <c r="J211" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K211" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="212">
@@ -9983,10 +9983,10 @@
         <v>7</v>
       </c>
       <c r="J212" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K212" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="213">
@@ -10028,10 +10028,10 @@
         <v>9</v>
       </c>
       <c r="J213" t="n">
+        <v>4</v>
+      </c>
+      <c r="K213" t="n">
         <v>7</v>
-      </c>
-      <c r="K213" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="214">
@@ -10073,10 +10073,10 @@
         <v>5</v>
       </c>
       <c r="J214" t="n">
+        <v>9</v>
+      </c>
+      <c r="K214" t="n">
         <v>0</v>
-      </c>
-      <c r="K214" t="n">
-        <v>9</v>
       </c>
     </row>
     <row r="215">
@@ -10118,10 +10118,10 @@
         <v>4</v>
       </c>
       <c r="J215" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K215" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="216">
@@ -10163,10 +10163,10 @@
         <v>10</v>
       </c>
       <c r="J216" t="n">
+        <v>6</v>
+      </c>
+      <c r="K216" t="n">
         <v>3</v>
-      </c>
-      <c r="K216" t="n">
-        <v>6</v>
       </c>
     </row>
     <row r="217">
@@ -10208,10 +10208,10 @@
         <v>2</v>
       </c>
       <c r="J217" t="n">
+        <v>5</v>
+      </c>
+      <c r="K217" t="n">
         <v>7</v>
-      </c>
-      <c r="K217" t="n">
-        <v>5</v>
       </c>
     </row>
     <row r="218">
@@ -10253,10 +10253,10 @@
         <v>22</v>
       </c>
       <c r="J218" t="n">
+        <v>5</v>
+      </c>
+      <c r="K218" t="n">
         <v>0</v>
-      </c>
-      <c r="K218" t="n">
-        <v>5</v>
       </c>
     </row>
     <row r="219">
@@ -10343,10 +10343,10 @@
         <v>7</v>
       </c>
       <c r="J220" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K220" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="221">
@@ -10388,10 +10388,10 @@
         <v>4</v>
       </c>
       <c r="J221" t="n">
+        <v>4</v>
+      </c>
+      <c r="K221" t="n">
         <v>5</v>
-      </c>
-      <c r="K221" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="222">
@@ -10433,10 +10433,10 @@
         <v>2</v>
       </c>
       <c r="J222" t="n">
+        <v>6</v>
+      </c>
+      <c r="K222" t="n">
         <v>0</v>
-      </c>
-      <c r="K222" t="n">
-        <v>6</v>
       </c>
     </row>
     <row r="223">
@@ -10478,10 +10478,10 @@
         <v>3</v>
       </c>
       <c r="J223" t="n">
+        <v>3</v>
+      </c>
+      <c r="K223" t="n">
         <v>8</v>
-      </c>
-      <c r="K223" t="n">
-        <v>3</v>
       </c>
     </row>
     <row r="224">
@@ -10523,10 +10523,10 @@
         <v>16</v>
       </c>
       <c r="J224" t="n">
+        <v>3</v>
+      </c>
+      <c r="K224" t="n">
         <v>6</v>
-      </c>
-      <c r="K224" t="n">
-        <v>3</v>
       </c>
     </row>
     <row r="225">
@@ -10568,10 +10568,10 @@
         <v>25</v>
       </c>
       <c r="J225" t="n">
+        <v>4</v>
+      </c>
+      <c r="K225" t="n">
         <v>0</v>
-      </c>
-      <c r="K225" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="226">
@@ -10613,10 +10613,10 @@
         <v>3</v>
       </c>
       <c r="J226" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K226" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="227">
@@ -10658,10 +10658,10 @@
         <v>13</v>
       </c>
       <c r="J227" t="n">
+        <v>6</v>
+      </c>
+      <c r="K227" t="n">
         <v>0</v>
-      </c>
-      <c r="K227" t="n">
-        <v>6</v>
       </c>
     </row>
     <row r="228">
@@ -10703,10 +10703,10 @@
         <v>7</v>
       </c>
       <c r="J228" t="n">
+        <v>6</v>
+      </c>
+      <c r="K228" t="n">
         <v>3</v>
-      </c>
-      <c r="K228" t="n">
-        <v>6</v>
       </c>
     </row>
     <row r="229">
@@ -10748,10 +10748,10 @@
         <v>7</v>
       </c>
       <c r="J229" t="n">
+        <v>1</v>
+      </c>
+      <c r="K229" t="n">
         <v>9</v>
-      </c>
-      <c r="K229" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="230">
@@ -10793,10 +10793,10 @@
         <v>13</v>
       </c>
       <c r="J230" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K230" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="231">
@@ -10838,10 +10838,10 @@
         <v>10</v>
       </c>
       <c r="J231" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K231" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="232">
@@ -10883,10 +10883,10 @@
         <v>6</v>
       </c>
       <c r="J232" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K232" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="233">
@@ -10928,10 +10928,10 @@
         <v>8</v>
       </c>
       <c r="J233" t="n">
+        <v>4</v>
+      </c>
+      <c r="K233" t="n">
         <v>3</v>
-      </c>
-      <c r="K233" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="234">
@@ -10973,10 +10973,10 @@
         <v>0</v>
       </c>
       <c r="J234" t="n">
+        <v>1</v>
+      </c>
+      <c r="K234" t="n">
         <v>8</v>
-      </c>
-      <c r="K234" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="235">
@@ -11018,10 +11018,10 @@
         <v>3</v>
       </c>
       <c r="J235" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K235" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="236">
@@ -11063,10 +11063,10 @@
         <v>9</v>
       </c>
       <c r="J236" t="n">
+        <v>1</v>
+      </c>
+      <c r="K236" t="n">
         <v>6</v>
-      </c>
-      <c r="K236" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="237">
@@ -11108,10 +11108,10 @@
         <v>1</v>
       </c>
       <c r="J237" t="n">
+        <v>1</v>
+      </c>
+      <c r="K237" t="n">
         <v>9</v>
-      </c>
-      <c r="K237" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="238">
@@ -11153,10 +11153,10 @@
         <v>3</v>
       </c>
       <c r="J238" t="n">
+        <v>4</v>
+      </c>
+      <c r="K238" t="n">
         <v>6</v>
-      </c>
-      <c r="K238" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="239">
@@ -11198,10 +11198,10 @@
         <v>10</v>
       </c>
       <c r="J239" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K239" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="240">
@@ -11243,10 +11243,10 @@
         <v>22</v>
       </c>
       <c r="J240" t="n">
+        <v>3</v>
+      </c>
+      <c r="K240" t="n">
         <v>0</v>
-      </c>
-      <c r="K240" t="n">
-        <v>3</v>
       </c>
     </row>
     <row r="241">
@@ -11288,10 +11288,10 @@
         <v>14</v>
       </c>
       <c r="J241" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K241" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="242">
@@ -11333,10 +11333,10 @@
         <v>6</v>
       </c>
       <c r="J242" t="n">
+        <v>4</v>
+      </c>
+      <c r="K242" t="n">
         <v>3</v>
-      </c>
-      <c r="K242" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="243">
@@ -11378,10 +11378,10 @@
         <v>3</v>
       </c>
       <c r="J243" t="n">
+        <v>4</v>
+      </c>
+      <c r="K243" t="n">
         <v>6</v>
-      </c>
-      <c r="K243" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="244">
@@ -11423,10 +11423,10 @@
         <v>2</v>
       </c>
       <c r="J244" t="n">
+        <v>2</v>
+      </c>
+      <c r="K244" t="n">
         <v>6</v>
-      </c>
-      <c r="K244" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="245">
@@ -11468,10 +11468,10 @@
         <v>10</v>
       </c>
       <c r="J245" t="n">
+        <v>2</v>
+      </c>
+      <c r="K245" t="n">
         <v>10</v>
-      </c>
-      <c r="K245" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="246">
@@ -11513,10 +11513,10 @@
         <v>3</v>
       </c>
       <c r="J246" t="n">
+        <v>9</v>
+      </c>
+      <c r="K246" t="n">
         <v>0</v>
-      </c>
-      <c r="K246" t="n">
-        <v>9</v>
       </c>
     </row>
     <row r="247">
@@ -11558,10 +11558,10 @@
         <v>10</v>
       </c>
       <c r="J247" t="n">
+        <v>1</v>
+      </c>
+      <c r="K247" t="n">
         <v>7</v>
-      </c>
-      <c r="K247" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="248">
@@ -11648,10 +11648,10 @@
         <v>9</v>
       </c>
       <c r="J249" t="n">
+        <v>2</v>
+      </c>
+      <c r="K249" t="n">
         <v>5</v>
-      </c>
-      <c r="K249" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="250">
@@ -11693,10 +11693,10 @@
         <v>9</v>
       </c>
       <c r="J250" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K250" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="251">
@@ -11738,10 +11738,10 @@
         <v>10</v>
       </c>
       <c r="J251" t="n">
+        <v>0</v>
+      </c>
+      <c r="K251" t="n">
         <v>8</v>
-      </c>
-      <c r="K251" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="252">
@@ -11783,10 +11783,10 @@
         <v>5</v>
       </c>
       <c r="J252" t="n">
+        <v>5</v>
+      </c>
+      <c r="K252" t="n">
         <v>8</v>
-      </c>
-      <c r="K252" t="n">
-        <v>5</v>
       </c>
     </row>
     <row r="253">
@@ -11828,10 +11828,10 @@
         <v>11</v>
       </c>
       <c r="J253" t="n">
+        <v>8</v>
+      </c>
+      <c r="K253" t="n">
         <v>1</v>
-      </c>
-      <c r="K253" t="n">
-        <v>8</v>
       </c>
     </row>
     <row r="254">
@@ -11873,10 +11873,10 @@
         <v>3</v>
       </c>
       <c r="J254" t="n">
+        <v>1</v>
+      </c>
+      <c r="K254" t="n">
         <v>15</v>
-      </c>
-      <c r="K254" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="255">
@@ -11918,10 +11918,10 @@
         <v>1</v>
       </c>
       <c r="J255" t="n">
+        <v>3</v>
+      </c>
+      <c r="K255" t="n">
         <v>10</v>
-      </c>
-      <c r="K255" t="n">
-        <v>3</v>
       </c>
     </row>
     <row r="256">
@@ -11963,10 +11963,10 @@
         <v>7</v>
       </c>
       <c r="J256" t="n">
+        <v>4</v>
+      </c>
+      <c r="K256" t="n">
         <v>1</v>
-      </c>
-      <c r="K256" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="257">
@@ -12098,10 +12098,10 @@
         <v>6</v>
       </c>
       <c r="J259" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K259" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="260">
@@ -12143,10 +12143,10 @@
         <v>5</v>
       </c>
       <c r="J260" t="n">
+        <v>4</v>
+      </c>
+      <c r="K260" t="n">
         <v>6</v>
-      </c>
-      <c r="K260" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="261">
@@ -12188,10 +12188,10 @@
         <v>6</v>
       </c>
       <c r="J261" t="n">
+        <v>3</v>
+      </c>
+      <c r="K261" t="n">
         <v>9</v>
-      </c>
-      <c r="K261" t="n">
-        <v>3</v>
       </c>
     </row>
     <row r="262">
@@ -12233,10 +12233,10 @@
         <v>3</v>
       </c>
       <c r="J262" t="n">
+        <v>0</v>
+      </c>
+      <c r="K262" t="n">
         <v>5</v>
-      </c>
-      <c r="K262" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="263">
@@ -12278,10 +12278,10 @@
         <v>1</v>
       </c>
       <c r="J263" t="n">
+        <v>5</v>
+      </c>
+      <c r="K263" t="n">
         <v>0</v>
-      </c>
-      <c r="K263" t="n">
-        <v>5</v>
       </c>
     </row>
     <row r="264">
@@ -12323,10 +12323,10 @@
         <v>3</v>
       </c>
       <c r="J264" t="n">
+        <v>0</v>
+      </c>
+      <c r="K264" t="n">
         <v>7</v>
-      </c>
-      <c r="K264" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="265">
@@ -12368,10 +12368,10 @@
         <v>0</v>
       </c>
       <c r="J265" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K265" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="266">
@@ -12413,10 +12413,10 @@
         <v>10</v>
       </c>
       <c r="J266" t="n">
+        <v>3</v>
+      </c>
+      <c r="K266" t="n">
         <v>1</v>
-      </c>
-      <c r="K266" t="n">
-        <v>3</v>
       </c>
     </row>
     <row r="267">
@@ -12458,10 +12458,10 @@
         <v>22</v>
       </c>
       <c r="J267" t="n">
+        <v>2</v>
+      </c>
+      <c r="K267" t="n">
         <v>0</v>
-      </c>
-      <c r="K267" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="268">
@@ -12503,10 +12503,10 @@
         <v>5</v>
       </c>
       <c r="J268" t="n">
+        <v>5</v>
+      </c>
+      <c r="K268" t="n">
         <v>10</v>
-      </c>
-      <c r="K268" t="n">
-        <v>5</v>
       </c>
     </row>
     <row r="269">
@@ -12548,10 +12548,10 @@
         <v>23</v>
       </c>
       <c r="J269" t="n">
+        <v>5</v>
+      </c>
+      <c r="K269" t="n">
         <v>0</v>
-      </c>
-      <c r="K269" t="n">
-        <v>5</v>
       </c>
     </row>
     <row r="270">
@@ -12593,10 +12593,10 @@
         <v>1</v>
       </c>
       <c r="J270" t="n">
+        <v>4</v>
+      </c>
+      <c r="K270" t="n">
         <v>1</v>
-      </c>
-      <c r="K270" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="271">
@@ -12638,10 +12638,10 @@
         <v>16</v>
       </c>
       <c r="J271" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K271" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="272">
@@ -12683,10 +12683,10 @@
         <v>6</v>
       </c>
       <c r="J272" t="n">
+        <v>2</v>
+      </c>
+      <c r="K272" t="n">
         <v>1</v>
-      </c>
-      <c r="K272" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="273">
@@ -12728,10 +12728,10 @@
         <v>4</v>
       </c>
       <c r="J273" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K273" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="274">
@@ -12773,10 +12773,10 @@
         <v>4</v>
       </c>
       <c r="J274" t="n">
+        <v>2</v>
+      </c>
+      <c r="K274" t="n">
         <v>9</v>
-      </c>
-      <c r="K274" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="275">
@@ -12818,10 +12818,10 @@
         <v>4</v>
       </c>
       <c r="J275" t="n">
+        <v>4</v>
+      </c>
+      <c r="K275" t="n">
         <v>8</v>
-      </c>
-      <c r="K275" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="276">
@@ -12863,10 +12863,10 @@
         <v>3</v>
       </c>
       <c r="J276" t="n">
+        <v>3</v>
+      </c>
+      <c r="K276" t="n">
         <v>8</v>
-      </c>
-      <c r="K276" t="n">
-        <v>3</v>
       </c>
     </row>
     <row r="277">
@@ -12908,10 +12908,10 @@
         <v>8</v>
       </c>
       <c r="J277" t="n">
+        <v>3</v>
+      </c>
+      <c r="K277" t="n">
         <v>6</v>
-      </c>
-      <c r="K277" t="n">
-        <v>3</v>
       </c>
     </row>
     <row r="278">
@@ -12953,10 +12953,10 @@
         <v>10</v>
       </c>
       <c r="J278" t="n">
+        <v>2</v>
+      </c>
+      <c r="K278" t="n">
         <v>7</v>
-      </c>
-      <c r="K278" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="279">
@@ -12998,10 +12998,10 @@
         <v>3</v>
       </c>
       <c r="J279" t="n">
+        <v>6</v>
+      </c>
+      <c r="K279" t="n">
         <v>3</v>
-      </c>
-      <c r="K279" t="n">
-        <v>6</v>
       </c>
     </row>
     <row r="280">
@@ -13043,10 +13043,10 @@
         <v>5</v>
       </c>
       <c r="J280" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="K280" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="281">
@@ -13088,10 +13088,10 @@
         <v>3</v>
       </c>
       <c r="J281" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K281" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="282">
@@ -13133,10 +13133,10 @@
         <v>3</v>
       </c>
       <c r="J282" t="n">
+        <v>4</v>
+      </c>
+      <c r="K282" t="n">
         <v>6</v>
-      </c>
-      <c r="K282" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="283">
@@ -13178,10 +13178,10 @@
         <v>28</v>
       </c>
       <c r="J283" t="n">
+        <v>8</v>
+      </c>
+      <c r="K283" t="n">
         <v>0</v>
-      </c>
-      <c r="K283" t="n">
-        <v>8</v>
       </c>
     </row>
     <row r="284">
@@ -13223,10 +13223,10 @@
         <v>3</v>
       </c>
       <c r="J284" t="n">
+        <v>4</v>
+      </c>
+      <c r="K284" t="n">
         <v>10</v>
-      </c>
-      <c r="K284" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="285">
@@ -13313,10 +13313,10 @@
         <v>21</v>
       </c>
       <c r="J286" t="n">
+        <v>1</v>
+      </c>
+      <c r="K286" t="n">
         <v>0</v>
-      </c>
-      <c r="K286" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="287">
@@ -13358,10 +13358,10 @@
         <v>2</v>
       </c>
       <c r="J287" t="n">
+        <v>3</v>
+      </c>
+      <c r="K287" t="n">
         <v>6</v>
-      </c>
-      <c r="K287" t="n">
-        <v>3</v>
       </c>
     </row>
     <row r="288">
@@ -13403,10 +13403,10 @@
         <v>8</v>
       </c>
       <c r="J288" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="K288" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="289">
@@ -13448,10 +13448,10 @@
         <v>3</v>
       </c>
       <c r="J289" t="n">
+        <v>1</v>
+      </c>
+      <c r="K289" t="n">
         <v>9</v>
-      </c>
-      <c r="K289" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="290">
@@ -13493,10 +13493,10 @@
         <v>4</v>
       </c>
       <c r="J290" t="n">
+        <v>8</v>
+      </c>
+      <c r="K290" t="n">
         <v>3</v>
-      </c>
-      <c r="K290" t="n">
-        <v>8</v>
       </c>
     </row>
     <row r="291">
@@ -13538,10 +13538,10 @@
         <v>13</v>
       </c>
       <c r="J291" t="n">
+        <v>8</v>
+      </c>
+      <c r="K291" t="n">
         <v>0</v>
-      </c>
-      <c r="K291" t="n">
-        <v>8</v>
       </c>
     </row>
     <row r="292">
@@ -13583,10 +13583,10 @@
         <v>3</v>
       </c>
       <c r="J292" t="n">
+        <v>4</v>
+      </c>
+      <c r="K292" t="n">
         <v>8</v>
-      </c>
-      <c r="K292" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="293">
@@ -13628,10 +13628,10 @@
         <v>2</v>
       </c>
       <c r="J293" t="n">
+        <v>8</v>
+      </c>
+      <c r="K293" t="n">
         <v>0</v>
-      </c>
-      <c r="K293" t="n">
-        <v>8</v>
       </c>
     </row>
     <row r="294">
@@ -13673,10 +13673,10 @@
         <v>9</v>
       </c>
       <c r="J294" t="n">
+        <v>1</v>
+      </c>
+      <c r="K294" t="n">
         <v>11</v>
-      </c>
-      <c r="K294" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="295">
@@ -13718,10 +13718,10 @@
         <v>6</v>
       </c>
       <c r="J295" t="n">
+        <v>4</v>
+      </c>
+      <c r="K295" t="n">
         <v>1</v>
-      </c>
-      <c r="K295" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="296">
@@ -13763,10 +13763,10 @@
         <v>13</v>
       </c>
       <c r="J296" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K296" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="297">
@@ -13808,10 +13808,10 @@
         <v>3</v>
       </c>
       <c r="J297" t="n">
+        <v>4</v>
+      </c>
+      <c r="K297" t="n">
         <v>6</v>
-      </c>
-      <c r="K297" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="298">
@@ -13853,10 +13853,10 @@
         <v>17</v>
       </c>
       <c r="J298" t="n">
+        <v>6</v>
+      </c>
+      <c r="K298" t="n">
         <v>0</v>
-      </c>
-      <c r="K298" t="n">
-        <v>6</v>
       </c>
     </row>
     <row r="299">
@@ -13898,10 +13898,10 @@
         <v>1</v>
       </c>
       <c r="J299" t="n">
+        <v>4</v>
+      </c>
+      <c r="K299" t="n">
         <v>8</v>
-      </c>
-      <c r="K299" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="300">
@@ -13943,10 +13943,10 @@
         <v>20</v>
       </c>
       <c r="J300" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K300" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="301">
@@ -13988,10 +13988,10 @@
         <v>3</v>
       </c>
       <c r="J301" t="n">
+        <v>4</v>
+      </c>
+      <c r="K301" t="n">
         <v>8</v>
-      </c>
-      <c r="K301" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="302">
@@ -14033,10 +14033,10 @@
         <v>9</v>
       </c>
       <c r="J302" t="n">
+        <v>5</v>
+      </c>
+      <c r="K302" t="n">
         <v>11</v>
-      </c>
-      <c r="K302" t="n">
-        <v>5</v>
       </c>
     </row>
     <row r="303">
@@ -14078,10 +14078,10 @@
         <v>21</v>
       </c>
       <c r="J303" t="n">
+        <v>2</v>
+      </c>
+      <c r="K303" t="n">
         <v>0</v>
-      </c>
-      <c r="K303" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="304">
@@ -14123,10 +14123,10 @@
         <v>9</v>
       </c>
       <c r="J304" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K304" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="305">
@@ -14168,10 +14168,10 @@
         <v>8</v>
       </c>
       <c r="J305" t="n">
+        <v>1</v>
+      </c>
+      <c r="K305" t="n">
         <v>7</v>
-      </c>
-      <c r="K305" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="306">
@@ -14213,10 +14213,10 @@
         <v>2</v>
       </c>
       <c r="J306" t="n">
+        <v>2</v>
+      </c>
+      <c r="K306" t="n">
         <v>0</v>
-      </c>
-      <c r="K306" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="307">
@@ -14258,10 +14258,10 @@
         <v>6</v>
       </c>
       <c r="J307" t="n">
+        <v>1</v>
+      </c>
+      <c r="K307" t="n">
         <v>8</v>
-      </c>
-      <c r="K307" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="308">
@@ -14348,10 +14348,10 @@
         <v>4</v>
       </c>
       <c r="J309" t="n">
+        <v>2</v>
+      </c>
+      <c r="K309" t="n">
         <v>7</v>
-      </c>
-      <c r="K309" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="310">
@@ -14393,10 +14393,10 @@
         <v>9</v>
       </c>
       <c r="J310" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K310" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="311">
@@ -14438,10 +14438,10 @@
         <v>1</v>
       </c>
       <c r="J311" t="n">
+        <v>4</v>
+      </c>
+      <c r="K311" t="n">
         <v>5</v>
-      </c>
-      <c r="K311" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="312">
@@ -14483,10 +14483,10 @@
         <v>3</v>
       </c>
       <c r="J312" t="n">
+        <v>2</v>
+      </c>
+      <c r="K312" t="n">
         <v>0</v>
-      </c>
-      <c r="K312" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="313">
@@ -14528,10 +14528,10 @@
         <v>21</v>
       </c>
       <c r="J313" t="n">
+        <v>6</v>
+      </c>
+      <c r="K313" t="n">
         <v>0</v>
-      </c>
-      <c r="K313" t="n">
-        <v>6</v>
       </c>
     </row>
     <row r="314">
@@ -14573,10 +14573,10 @@
         <v>7</v>
       </c>
       <c r="J314" t="n">
+        <v>8</v>
+      </c>
+      <c r="K314" t="n">
         <v>3</v>
-      </c>
-      <c r="K314" t="n">
-        <v>8</v>
       </c>
     </row>
     <row r="315">
@@ -14618,10 +14618,10 @@
         <v>4</v>
       </c>
       <c r="J315" t="n">
+        <v>1</v>
+      </c>
+      <c r="K315" t="n">
         <v>3</v>
-      </c>
-      <c r="K315" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="316">
@@ -14663,10 +14663,10 @@
         <v>24</v>
       </c>
       <c r="J316" t="n">
+        <v>6</v>
+      </c>
+      <c r="K316" t="n">
         <v>1</v>
-      </c>
-      <c r="K316" t="n">
-        <v>6</v>
       </c>
     </row>
     <row r="317">
@@ -14708,10 +14708,10 @@
         <v>2</v>
       </c>
       <c r="J317" t="n">
+        <v>5</v>
+      </c>
+      <c r="K317" t="n">
         <v>12</v>
-      </c>
-      <c r="K317" t="n">
-        <v>5</v>
       </c>
     </row>
     <row r="318">
@@ -14753,10 +14753,10 @@
         <v>2</v>
       </c>
       <c r="J318" t="n">
+        <v>4</v>
+      </c>
+      <c r="K318" t="n">
         <v>8</v>
-      </c>
-      <c r="K318" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="319">
@@ -14798,10 +14798,10 @@
         <v>5</v>
       </c>
       <c r="J319" t="n">
+        <v>2</v>
+      </c>
+      <c r="K319" t="n">
         <v>8</v>
-      </c>
-      <c r="K319" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="320">
@@ -14843,10 +14843,10 @@
         <v>23</v>
       </c>
       <c r="J320" t="n">
+        <v>5</v>
+      </c>
+      <c r="K320" t="n">
         <v>0</v>
-      </c>
-      <c r="K320" t="n">
-        <v>5</v>
       </c>
     </row>
     <row r="321">
@@ -14888,10 +14888,10 @@
         <v>13</v>
       </c>
       <c r="J321" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K321" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="322">
@@ -14933,10 +14933,10 @@
         <v>1</v>
       </c>
       <c r="J322" t="n">
+        <v>8</v>
+      </c>
+      <c r="K322" t="n">
         <v>5</v>
-      </c>
-      <c r="K322" t="n">
-        <v>8</v>
       </c>
     </row>
     <row r="323">
@@ -14978,10 +14978,10 @@
         <v>7</v>
       </c>
       <c r="J323" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K323" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="324">
@@ -15023,10 +15023,10 @@
         <v>1</v>
       </c>
       <c r="J324" t="n">
+        <v>0</v>
+      </c>
+      <c r="K324" t="n">
         <v>8</v>
-      </c>
-      <c r="K324" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="325">
@@ -15068,10 +15068,10 @@
         <v>3</v>
       </c>
       <c r="J325" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K325" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="326">
@@ -15113,10 +15113,10 @@
         <v>8</v>
       </c>
       <c r="J326" t="n">
+        <v>7</v>
+      </c>
+      <c r="K326" t="n">
         <v>0</v>
-      </c>
-      <c r="K326" t="n">
-        <v>7</v>
       </c>
     </row>
     <row r="327">
@@ -15158,10 +15158,10 @@
         <v>21</v>
       </c>
       <c r="J327" t="n">
+        <v>4</v>
+      </c>
+      <c r="K327" t="n">
         <v>1</v>
-      </c>
-      <c r="K327" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="328">
@@ -15203,10 +15203,10 @@
         <v>0</v>
       </c>
       <c r="J328" t="n">
+        <v>6</v>
+      </c>
+      <c r="K328" t="n">
         <v>5</v>
-      </c>
-      <c r="K328" t="n">
-        <v>6</v>
       </c>
     </row>
     <row r="329">
@@ -15248,10 +15248,10 @@
         <v>11</v>
       </c>
       <c r="J329" t="n">
+        <v>8</v>
+      </c>
+      <c r="K329" t="n">
         <v>0</v>
-      </c>
-      <c r="K329" t="n">
-        <v>8</v>
       </c>
     </row>
     <row r="330">
@@ -15293,10 +15293,10 @@
         <v>0</v>
       </c>
       <c r="J330" t="n">
+        <v>7</v>
+      </c>
+      <c r="K330" t="n">
         <v>5</v>
-      </c>
-      <c r="K330" t="n">
-        <v>7</v>
       </c>
     </row>
     <row r="331">
@@ -15338,10 +15338,10 @@
         <v>24</v>
       </c>
       <c r="J331" t="n">
+        <v>6</v>
+      </c>
+      <c r="K331" t="n">
         <v>0</v>
-      </c>
-      <c r="K331" t="n">
-        <v>6</v>
       </c>
     </row>
     <row r="332">
@@ -15383,10 +15383,10 @@
         <v>3</v>
       </c>
       <c r="J332" t="n">
+        <v>6</v>
+      </c>
+      <c r="K332" t="n">
         <v>5</v>
-      </c>
-      <c r="K332" t="n">
-        <v>6</v>
       </c>
     </row>
     <row r="333">
@@ -15428,10 +15428,10 @@
         <v>5</v>
       </c>
       <c r="J333" t="n">
+        <v>6</v>
+      </c>
+      <c r="K333" t="n">
         <v>1</v>
-      </c>
-      <c r="K333" t="n">
-        <v>6</v>
       </c>
     </row>
     <row r="334">
@@ -15473,10 +15473,10 @@
         <v>2</v>
       </c>
       <c r="J334" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="K334" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="335">
@@ -15518,10 +15518,10 @@
         <v>2</v>
       </c>
       <c r="J335" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K335" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="336">
@@ -15563,10 +15563,10 @@
         <v>3</v>
       </c>
       <c r="J336" t="n">
+        <v>4</v>
+      </c>
+      <c r="K336" t="n">
         <v>5</v>
-      </c>
-      <c r="K336" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="337">
@@ -15608,10 +15608,10 @@
         <v>6</v>
       </c>
       <c r="J337" t="n">
+        <v>6</v>
+      </c>
+      <c r="K337" t="n">
         <v>3</v>
-      </c>
-      <c r="K337" t="n">
-        <v>6</v>
       </c>
     </row>
     <row r="338">
@@ -15698,10 +15698,10 @@
         <v>12</v>
       </c>
       <c r="J339" t="n">
+        <v>6</v>
+      </c>
+      <c r="K339" t="n">
         <v>0</v>
-      </c>
-      <c r="K339" t="n">
-        <v>6</v>
       </c>
     </row>
     <row r="340">
@@ -15743,10 +15743,10 @@
         <v>21</v>
       </c>
       <c r="J340" t="n">
+        <v>8</v>
+      </c>
+      <c r="K340" t="n">
         <v>0</v>
-      </c>
-      <c r="K340" t="n">
-        <v>8</v>
       </c>
     </row>
     <row r="341">
@@ -15788,10 +15788,10 @@
         <v>7</v>
       </c>
       <c r="J341" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K341" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="342">
@@ -15833,10 +15833,10 @@
         <v>4</v>
       </c>
       <c r="J342" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="K342" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="343">
@@ -15923,10 +15923,10 @@
         <v>15</v>
       </c>
       <c r="J344" t="n">
+        <v>6</v>
+      </c>
+      <c r="K344" t="n">
         <v>0</v>
-      </c>
-      <c r="K344" t="n">
-        <v>6</v>
       </c>
     </row>
     <row r="345">
@@ -15968,10 +15968,10 @@
         <v>12</v>
       </c>
       <c r="J345" t="n">
+        <v>6</v>
+      </c>
+      <c r="K345" t="n">
         <v>1</v>
-      </c>
-      <c r="K345" t="n">
-        <v>6</v>
       </c>
     </row>
     <row r="346">
@@ -16013,10 +16013,10 @@
         <v>5</v>
       </c>
       <c r="J346" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K346" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="347">
@@ -16058,10 +16058,10 @@
         <v>6</v>
       </c>
       <c r="J347" t="n">
+        <v>8</v>
+      </c>
+      <c r="K347" t="n">
         <v>0</v>
-      </c>
-      <c r="K347" t="n">
-        <v>8</v>
       </c>
     </row>
     <row r="348">
@@ -16103,10 +16103,10 @@
         <v>6</v>
       </c>
       <c r="J348" t="n">
+        <v>6</v>
+      </c>
+      <c r="K348" t="n">
         <v>3</v>
-      </c>
-      <c r="K348" t="n">
-        <v>6</v>
       </c>
     </row>
     <row r="349">
@@ -16193,10 +16193,10 @@
         <v>6</v>
       </c>
       <c r="J350" t="n">
+        <v>4</v>
+      </c>
+      <c r="K350" t="n">
         <v>7</v>
-      </c>
-      <c r="K350" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="351">
@@ -16238,10 +16238,10 @@
         <v>14</v>
       </c>
       <c r="J351" t="n">
+        <v>8</v>
+      </c>
+      <c r="K351" t="n">
         <v>0</v>
-      </c>
-      <c r="K351" t="n">
-        <v>8</v>
       </c>
     </row>
     <row r="352">
@@ -16328,10 +16328,10 @@
         <v>1</v>
       </c>
       <c r="J353" t="n">
+        <v>8</v>
+      </c>
+      <c r="K353" t="n">
         <v>5</v>
-      </c>
-      <c r="K353" t="n">
-        <v>8</v>
       </c>
     </row>
     <row r="354">
@@ -16373,10 +16373,10 @@
         <v>0</v>
       </c>
       <c r="J354" t="n">
+        <v>0</v>
+      </c>
+      <c r="K354" t="n">
         <v>7</v>
-      </c>
-      <c r="K354" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="355">
@@ -16418,10 +16418,10 @@
         <v>3</v>
       </c>
       <c r="J355" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K355" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="356">
@@ -16463,10 +16463,10 @@
         <v>0</v>
       </c>
       <c r="J356" t="n">
+        <v>3</v>
+      </c>
+      <c r="K356" t="n">
         <v>12</v>
-      </c>
-      <c r="K356" t="n">
-        <v>3</v>
       </c>
     </row>
     <row r="357">
@@ -16508,10 +16508,10 @@
         <v>3</v>
       </c>
       <c r="J357" t="n">
+        <v>8</v>
+      </c>
+      <c r="K357" t="n">
         <v>0</v>
-      </c>
-      <c r="K357" t="n">
-        <v>8</v>
       </c>
     </row>
     <row r="358">
@@ -16553,10 +16553,10 @@
         <v>6</v>
       </c>
       <c r="J358" t="n">
+        <v>7</v>
+      </c>
+      <c r="K358" t="n">
         <v>12</v>
-      </c>
-      <c r="K358" t="n">
-        <v>7</v>
       </c>
     </row>
     <row r="359">
@@ -16598,10 +16598,10 @@
         <v>5</v>
       </c>
       <c r="J359" t="n">
+        <v>8</v>
+      </c>
+      <c r="K359" t="n">
         <v>3</v>
-      </c>
-      <c r="K359" t="n">
-        <v>8</v>
       </c>
     </row>
     <row r="360">
@@ -16643,10 +16643,10 @@
         <v>17</v>
       </c>
       <c r="J360" t="n">
+        <v>7</v>
+      </c>
+      <c r="K360" t="n">
         <v>0</v>
-      </c>
-      <c r="K360" t="n">
-        <v>7</v>
       </c>
     </row>
     <row r="361">
@@ -16688,10 +16688,10 @@
         <v>25</v>
       </c>
       <c r="J361" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K361" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="362">
@@ -16733,10 +16733,10 @@
         <v>5</v>
       </c>
       <c r="J362" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K362" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="363">
@@ -16778,10 +16778,10 @@
         <v>6</v>
       </c>
       <c r="J363" t="n">
+        <v>8</v>
+      </c>
+      <c r="K363" t="n">
         <v>5</v>
-      </c>
-      <c r="K363" t="n">
-        <v>8</v>
       </c>
     </row>
     <row r="364">
@@ -16823,10 +16823,10 @@
         <v>6</v>
       </c>
       <c r="J364" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K364" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="365">
@@ -16868,10 +16868,10 @@
         <v>6</v>
       </c>
       <c r="J365" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K365" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="366">
@@ -16913,10 +16913,10 @@
         <v>6</v>
       </c>
       <c r="J366" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K366" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="367">
@@ -16958,10 +16958,10 @@
         <v>5</v>
       </c>
       <c r="J367" t="n">
+        <v>8</v>
+      </c>
+      <c r="K367" t="n">
         <v>0</v>
-      </c>
-      <c r="K367" t="n">
-        <v>8</v>
       </c>
     </row>
     <row r="368">
@@ -17003,10 +17003,10 @@
         <v>7</v>
       </c>
       <c r="J368" t="n">
+        <v>7</v>
+      </c>
+      <c r="K368" t="n">
         <v>0</v>
-      </c>
-      <c r="K368" t="n">
-        <v>7</v>
       </c>
     </row>
     <row r="369">
@@ -17048,10 +17048,10 @@
         <v>2</v>
       </c>
       <c r="J369" t="n">
+        <v>4</v>
+      </c>
+      <c r="K369" t="n">
         <v>5</v>
-      </c>
-      <c r="K369" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="370">
@@ -17093,10 +17093,10 @@
         <v>3</v>
       </c>
       <c r="J370" t="n">
+        <v>0</v>
+      </c>
+      <c r="K370" t="n">
         <v>8</v>
-      </c>
-      <c r="K370" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="371">
@@ -17138,10 +17138,10 @@
         <v>5</v>
       </c>
       <c r="J371" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K371" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="372">
@@ -17183,10 +17183,10 @@
         <v>15</v>
       </c>
       <c r="J372" t="n">
+        <v>2</v>
+      </c>
+      <c r="K372" t="n">
         <v>0</v>
-      </c>
-      <c r="K372" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="373">
@@ -17228,10 +17228,10 @@
         <v>13</v>
       </c>
       <c r="J373" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K373" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="374">
@@ -17273,10 +17273,10 @@
         <v>0</v>
       </c>
       <c r="J374" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K374" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="375">
@@ -17318,10 +17318,10 @@
         <v>3</v>
       </c>
       <c r="J375" t="n">
+        <v>6</v>
+      </c>
+      <c r="K375" t="n">
         <v>1</v>
-      </c>
-      <c r="K375" t="n">
-        <v>6</v>
       </c>
     </row>
     <row r="376">
@@ -17363,10 +17363,10 @@
         <v>14</v>
       </c>
       <c r="J376" t="n">
+        <v>8</v>
+      </c>
+      <c r="K376" t="n">
         <v>0</v>
-      </c>
-      <c r="K376" t="n">
-        <v>8</v>
       </c>
     </row>
     <row r="377">
@@ -17408,10 +17408,10 @@
         <v>9</v>
       </c>
       <c r="J377" t="n">
+        <v>1</v>
+      </c>
+      <c r="K377" t="n">
         <v>7</v>
-      </c>
-      <c r="K377" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="378">
@@ -17453,10 +17453,10 @@
         <v>9</v>
       </c>
       <c r="J378" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K378" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="379">
@@ -17498,10 +17498,10 @@
         <v>10</v>
       </c>
       <c r="J379" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="K379" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="380">
@@ -17543,10 +17543,10 @@
         <v>17</v>
       </c>
       <c r="J380" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K380" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="381">
@@ -17588,10 +17588,10 @@
         <v>1</v>
       </c>
       <c r="J381" t="n">
+        <v>2</v>
+      </c>
+      <c r="K381" t="n">
         <v>6</v>
-      </c>
-      <c r="K381" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="382">
@@ -17633,10 +17633,10 @@
         <v>2</v>
       </c>
       <c r="J382" t="n">
+        <v>6</v>
+      </c>
+      <c r="K382" t="n">
         <v>0</v>
-      </c>
-      <c r="K382" t="n">
-        <v>6</v>
       </c>
     </row>
     <row r="383">
@@ -17678,10 +17678,10 @@
         <v>5</v>
       </c>
       <c r="J383" t="n">
+        <v>4</v>
+      </c>
+      <c r="K383" t="n">
         <v>7</v>
-      </c>
-      <c r="K383" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="384">
@@ -17768,10 +17768,10 @@
         <v>2</v>
       </c>
       <c r="J385" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K385" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="386">
@@ -17813,10 +17813,10 @@
         <v>21</v>
       </c>
       <c r="J386" t="n">
+        <v>5</v>
+      </c>
+      <c r="K386" t="n">
         <v>0</v>
-      </c>
-      <c r="K386" t="n">
-        <v>5</v>
       </c>
     </row>
     <row r="387">
@@ -17858,10 +17858,10 @@
         <v>6</v>
       </c>
       <c r="J387" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K387" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="388">
@@ -17903,10 +17903,10 @@
         <v>10</v>
       </c>
       <c r="J388" t="n">
+        <v>10</v>
+      </c>
+      <c r="K388" t="n">
         <v>0</v>
-      </c>
-      <c r="K388" t="n">
-        <v>10</v>
       </c>
     </row>
     <row r="389">
@@ -17948,10 +17948,10 @@
         <v>4</v>
       </c>
       <c r="J389" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="K389" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="390">
@@ -17993,10 +17993,10 @@
         <v>7</v>
       </c>
       <c r="J390" t="n">
+        <v>3</v>
+      </c>
+      <c r="K390" t="n">
         <v>6</v>
-      </c>
-      <c r="K390" t="n">
-        <v>3</v>
       </c>
     </row>
     <row r="391">
@@ -18038,10 +18038,10 @@
         <v>0</v>
       </c>
       <c r="J391" t="n">
+        <v>4</v>
+      </c>
+      <c r="K391" t="n">
         <v>6</v>
-      </c>
-      <c r="K391" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="392">
@@ -18083,10 +18083,10 @@
         <v>2</v>
       </c>
       <c r="J392" t="n">
+        <v>7</v>
+      </c>
+      <c r="K392" t="n">
         <v>5</v>
-      </c>
-      <c r="K392" t="n">
-        <v>7</v>
       </c>
     </row>
     <row r="393">
@@ -18128,10 +18128,10 @@
         <v>7</v>
       </c>
       <c r="J393" t="n">
+        <v>2</v>
+      </c>
+      <c r="K393" t="n">
         <v>11</v>
-      </c>
-      <c r="K393" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="394">
@@ -18173,10 +18173,10 @@
         <v>5</v>
       </c>
       <c r="J394" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K394" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="395">
@@ -18218,10 +18218,10 @@
         <v>1</v>
       </c>
       <c r="J395" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="K395" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="396">
@@ -18263,10 +18263,10 @@
         <v>10</v>
       </c>
       <c r="J396" t="n">
+        <v>8</v>
+      </c>
+      <c r="K396" t="n">
         <v>0</v>
-      </c>
-      <c r="K396" t="n">
-        <v>8</v>
       </c>
     </row>
     <row r="397">
@@ -18308,10 +18308,10 @@
         <v>17</v>
       </c>
       <c r="J397" t="n">
+        <v>4</v>
+      </c>
+      <c r="K397" t="n">
         <v>0</v>
-      </c>
-      <c r="K397" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="398">
@@ -18353,10 +18353,10 @@
         <v>11</v>
       </c>
       <c r="J398" t="n">
+        <v>9</v>
+      </c>
+      <c r="K398" t="n">
         <v>0</v>
-      </c>
-      <c r="K398" t="n">
-        <v>9</v>
       </c>
     </row>
     <row r="399">
@@ -18398,10 +18398,10 @@
         <v>8</v>
       </c>
       <c r="J399" t="n">
+        <v>8</v>
+      </c>
+      <c r="K399" t="n">
         <v>0</v>
-      </c>
-      <c r="K399" t="n">
-        <v>8</v>
       </c>
     </row>
     <row r="400">
@@ -18443,10 +18443,10 @@
         <v>10</v>
       </c>
       <c r="J400" t="n">
+        <v>8</v>
+      </c>
+      <c r="K400" t="n">
         <v>1</v>
-      </c>
-      <c r="K400" t="n">
-        <v>8</v>
       </c>
     </row>
     <row r="401">
@@ -18488,10 +18488,10 @@
         <v>16</v>
       </c>
       <c r="J401" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K401" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="402">
@@ -18533,10 +18533,10 @@
         <v>4</v>
       </c>
       <c r="J402" t="n">
+        <v>1</v>
+      </c>
+      <c r="K402" t="n">
         <v>3</v>
-      </c>
-      <c r="K402" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="403">
@@ -18578,10 +18578,10 @@
         <v>21</v>
       </c>
       <c r="J403" t="n">
+        <v>1</v>
+      </c>
+      <c r="K403" t="n">
         <v>0</v>
-      </c>
-      <c r="K403" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="404">
@@ -18623,10 +18623,10 @@
         <v>10</v>
       </c>
       <c r="J404" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="K404" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="405">
@@ -18668,10 +18668,10 @@
         <v>15</v>
       </c>
       <c r="J405" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="K405" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="406">
@@ -18713,10 +18713,10 @@
         <v>10</v>
       </c>
       <c r="J406" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K406" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="407">
@@ -18758,10 +18758,10 @@
         <v>13</v>
       </c>
       <c r="J407" t="n">
+        <v>9</v>
+      </c>
+      <c r="K407" t="n">
         <v>1</v>
-      </c>
-      <c r="K407" t="n">
-        <v>9</v>
       </c>
     </row>
     <row r="408">
@@ -18803,10 +18803,10 @@
         <v>5</v>
       </c>
       <c r="J408" t="n">
+        <v>0</v>
+      </c>
+      <c r="K408" t="n">
         <v>8</v>
-      </c>
-      <c r="K408" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="409">
@@ -18848,10 +18848,10 @@
         <v>3</v>
       </c>
       <c r="J409" t="n">
+        <v>2</v>
+      </c>
+      <c r="K409" t="n">
         <v>6</v>
-      </c>
-      <c r="K409" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="410">
@@ -18893,10 +18893,10 @@
         <v>6</v>
       </c>
       <c r="J410" t="n">
+        <v>8</v>
+      </c>
+      <c r="K410" t="n">
         <v>1</v>
-      </c>
-      <c r="K410" t="n">
-        <v>8</v>
       </c>
     </row>
     <row r="411">
@@ -18938,10 +18938,10 @@
         <v>2</v>
       </c>
       <c r="J411" t="n">
+        <v>3</v>
+      </c>
+      <c r="K411" t="n">
         <v>6</v>
-      </c>
-      <c r="K411" t="n">
-        <v>3</v>
       </c>
     </row>
     <row r="412">
@@ -18983,10 +18983,10 @@
         <v>5</v>
       </c>
       <c r="J412" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K412" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="413">
@@ -19028,10 +19028,10 @@
         <v>13</v>
       </c>
       <c r="J413" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K413" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="414">
@@ -19073,10 +19073,10 @@
         <v>8</v>
       </c>
       <c r="J414" t="n">
+        <v>6</v>
+      </c>
+      <c r="K414" t="n">
         <v>1</v>
-      </c>
-      <c r="K414" t="n">
-        <v>6</v>
       </c>
     </row>
     <row r="415">
@@ -19118,10 +19118,10 @@
         <v>1</v>
       </c>
       <c r="J415" t="n">
+        <v>2</v>
+      </c>
+      <c r="K415" t="n">
         <v>8</v>
-      </c>
-      <c r="K415" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="416">
@@ -19253,10 +19253,10 @@
         <v>22</v>
       </c>
       <c r="J418" t="n">
+        <v>4</v>
+      </c>
+      <c r="K418" t="n">
         <v>0</v>
-      </c>
-      <c r="K418" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="419">
@@ -19298,10 +19298,10 @@
         <v>6</v>
       </c>
       <c r="J419" t="n">
+        <v>0</v>
+      </c>
+      <c r="K419" t="n">
         <v>8</v>
-      </c>
-      <c r="K419" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="420">
@@ -19343,10 +19343,10 @@
         <v>6</v>
       </c>
       <c r="J420" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K420" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="421">
@@ -19388,10 +19388,10 @@
         <v>7</v>
       </c>
       <c r="J421" t="n">
+        <v>1</v>
+      </c>
+      <c r="K421" t="n">
         <v>6</v>
-      </c>
-      <c r="K421" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="422">
@@ -19433,10 +19433,10 @@
         <v>4</v>
       </c>
       <c r="J422" t="n">
+        <v>8</v>
+      </c>
+      <c r="K422" t="n">
         <v>1</v>
-      </c>
-      <c r="K422" t="n">
-        <v>8</v>
       </c>
     </row>
     <row r="423">
@@ -19478,10 +19478,10 @@
         <v>2</v>
       </c>
       <c r="J423" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K423" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="424">
@@ -19523,10 +19523,10 @@
         <v>13</v>
       </c>
       <c r="J424" t="n">
+        <v>3</v>
+      </c>
+      <c r="K424" t="n">
         <v>1</v>
-      </c>
-      <c r="K424" t="n">
-        <v>3</v>
       </c>
     </row>
     <row r="425">
@@ -19568,10 +19568,10 @@
         <v>1</v>
       </c>
       <c r="J425" t="n">
+        <v>5</v>
+      </c>
+      <c r="K425" t="n">
         <v>8</v>
-      </c>
-      <c r="K425" t="n">
-        <v>5</v>
       </c>
     </row>
     <row r="426">
@@ -19613,10 +19613,10 @@
         <v>8</v>
       </c>
       <c r="J426" t="n">
+        <v>2</v>
+      </c>
+      <c r="K426" t="n">
         <v>6</v>
-      </c>
-      <c r="K426" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="427">
@@ -19658,10 +19658,10 @@
         <v>1</v>
       </c>
       <c r="J427" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K427" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="428">
@@ -19703,10 +19703,10 @@
         <v>1</v>
       </c>
       <c r="J428" t="n">
+        <v>1</v>
+      </c>
+      <c r="K428" t="n">
         <v>5</v>
-      </c>
-      <c r="K428" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="429">
@@ -19748,10 +19748,10 @@
         <v>6</v>
       </c>
       <c r="J429" t="n">
+        <v>0</v>
+      </c>
+      <c r="K429" t="n">
         <v>12</v>
-      </c>
-      <c r="K429" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="430">
@@ -19793,10 +19793,10 @@
         <v>5</v>
       </c>
       <c r="J430" t="n">
+        <v>0</v>
+      </c>
+      <c r="K430" t="n">
         <v>5</v>
-      </c>
-      <c r="K430" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="431">
@@ -19883,10 +19883,10 @@
         <v>3</v>
       </c>
       <c r="J432" t="n">
+        <v>2</v>
+      </c>
+      <c r="K432" t="n">
         <v>6</v>
-      </c>
-      <c r="K432" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="433">
@@ -19928,10 +19928,10 @@
         <v>3</v>
       </c>
       <c r="J433" t="n">
+        <v>6</v>
+      </c>
+      <c r="K433" t="n">
         <v>3</v>
-      </c>
-      <c r="K433" t="n">
-        <v>6</v>
       </c>
     </row>
     <row r="434">
@@ -19973,10 +19973,10 @@
         <v>7</v>
       </c>
       <c r="J434" t="n">
+        <v>0</v>
+      </c>
+      <c r="K434" t="n">
         <v>8</v>
-      </c>
-      <c r="K434" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="435">
@@ -20018,10 +20018,10 @@
         <v>2</v>
       </c>
       <c r="J435" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K435" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="436">
@@ -20063,10 +20063,10 @@
         <v>8</v>
       </c>
       <c r="J436" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="K436" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="437">
@@ -20108,10 +20108,10 @@
         <v>6</v>
       </c>
       <c r="J437" t="n">
+        <v>2</v>
+      </c>
+      <c r="K437" t="n">
         <v>6</v>
-      </c>
-      <c r="K437" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="438">
@@ -20153,10 +20153,10 @@
         <v>8</v>
       </c>
       <c r="J438" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K438" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="439">
@@ -20243,10 +20243,10 @@
         <v>4</v>
       </c>
       <c r="J440" t="n">
+        <v>4</v>
+      </c>
+      <c r="K440" t="n">
         <v>1</v>
-      </c>
-      <c r="K440" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="441">
@@ -20288,10 +20288,10 @@
         <v>17</v>
       </c>
       <c r="J441" t="n">
+        <v>6</v>
+      </c>
+      <c r="K441" t="n">
         <v>1</v>
-      </c>
-      <c r="K441" t="n">
-        <v>6</v>
       </c>
     </row>
     <row r="442">
@@ -20333,10 +20333,10 @@
         <v>22</v>
       </c>
       <c r="J442" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K442" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="443">
@@ -20378,10 +20378,10 @@
         <v>6</v>
       </c>
       <c r="J443" t="n">
+        <v>5</v>
+      </c>
+      <c r="K443" t="n">
         <v>3</v>
-      </c>
-      <c r="K443" t="n">
-        <v>5</v>
       </c>
     </row>
     <row r="444">
@@ -20423,10 +20423,10 @@
         <v>4</v>
       </c>
       <c r="J444" t="n">
+        <v>7</v>
+      </c>
+      <c r="K444" t="n">
         <v>3</v>
-      </c>
-      <c r="K444" t="n">
-        <v>7</v>
       </c>
     </row>
     <row r="445">
@@ -20468,10 +20468,10 @@
         <v>11</v>
       </c>
       <c r="J445" t="n">
+        <v>5</v>
+      </c>
+      <c r="K445" t="n">
         <v>0</v>
-      </c>
-      <c r="K445" t="n">
-        <v>5</v>
       </c>
     </row>
     <row r="446">
@@ -20513,10 +20513,10 @@
         <v>2</v>
       </c>
       <c r="J446" t="n">
+        <v>8</v>
+      </c>
+      <c r="K446" t="n">
         <v>0</v>
-      </c>
-      <c r="K446" t="n">
-        <v>8</v>
       </c>
     </row>
     <row r="447">
@@ -20558,10 +20558,10 @@
         <v>0</v>
       </c>
       <c r="J447" t="n">
+        <v>5</v>
+      </c>
+      <c r="K447" t="n">
         <v>0</v>
-      </c>
-      <c r="K447" t="n">
-        <v>5</v>
       </c>
     </row>
     <row r="448">
@@ -20603,10 +20603,10 @@
         <v>2</v>
       </c>
       <c r="J448" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K448" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="449">
@@ -20648,10 +20648,10 @@
         <v>12</v>
       </c>
       <c r="J449" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="K449" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="450">
@@ -20693,10 +20693,10 @@
         <v>15</v>
       </c>
       <c r="J450" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K450" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="451">
@@ -20738,10 +20738,10 @@
         <v>2</v>
       </c>
       <c r="J451" t="n">
+        <v>1</v>
+      </c>
+      <c r="K451" t="n">
         <v>10</v>
-      </c>
-      <c r="K451" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="452">
@@ -20783,10 +20783,10 @@
         <v>16</v>
       </c>
       <c r="J452" t="n">
+        <v>6</v>
+      </c>
+      <c r="K452" t="n">
         <v>0</v>
-      </c>
-      <c r="K452" t="n">
-        <v>6</v>
       </c>
     </row>
     <row r="453">
@@ -20828,10 +20828,10 @@
         <v>6</v>
       </c>
       <c r="J453" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="K453" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="454">
@@ -20873,10 +20873,10 @@
         <v>12</v>
       </c>
       <c r="J454" t="n">
+        <v>6</v>
+      </c>
+      <c r="K454" t="n">
         <v>3</v>
-      </c>
-      <c r="K454" t="n">
-        <v>6</v>
       </c>
     </row>
     <row r="455">
@@ -20918,10 +20918,10 @@
         <v>2</v>
       </c>
       <c r="J455" t="n">
+        <v>2</v>
+      </c>
+      <c r="K455" t="n">
         <v>6</v>
-      </c>
-      <c r="K455" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="456">
@@ -20963,10 +20963,10 @@
         <v>11</v>
       </c>
       <c r="J456" t="n">
+        <v>1</v>
+      </c>
+      <c r="K456" t="n">
         <v>6</v>
-      </c>
-      <c r="K456" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="457">
@@ -21008,10 +21008,10 @@
         <v>2</v>
       </c>
       <c r="J457" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K457" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="458">
@@ -21053,10 +21053,10 @@
         <v>7</v>
       </c>
       <c r="J458" t="n">
+        <v>1</v>
+      </c>
+      <c r="K458" t="n">
         <v>8</v>
-      </c>
-      <c r="K458" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="459">
@@ -21098,10 +21098,10 @@
         <v>9</v>
       </c>
       <c r="J459" t="n">
+        <v>1</v>
+      </c>
+      <c r="K459" t="n">
         <v>6</v>
-      </c>
-      <c r="K459" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="460">
@@ -21188,10 +21188,10 @@
         <v>6</v>
       </c>
       <c r="J461" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K461" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="462">
@@ -21233,10 +21233,10 @@
         <v>7</v>
       </c>
       <c r="J462" t="n">
+        <v>0</v>
+      </c>
+      <c r="K462" t="n">
         <v>8</v>
-      </c>
-      <c r="K462" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="463">
@@ -21278,10 +21278,10 @@
         <v>9</v>
       </c>
       <c r="J463" t="n">
+        <v>0</v>
+      </c>
+      <c r="K463" t="n">
         <v>8</v>
-      </c>
-      <c r="K463" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="464">
@@ -21323,10 +21323,10 @@
         <v>0</v>
       </c>
       <c r="J464" t="n">
+        <v>3</v>
+      </c>
+      <c r="K464" t="n">
         <v>7</v>
-      </c>
-      <c r="K464" t="n">
-        <v>3</v>
       </c>
     </row>
     <row r="465">
@@ -21368,10 +21368,10 @@
         <v>22</v>
       </c>
       <c r="J465" t="n">
+        <v>4</v>
+      </c>
+      <c r="K465" t="n">
         <v>0</v>
-      </c>
-      <c r="K465" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="466">
@@ -21413,10 +21413,10 @@
         <v>9</v>
       </c>
       <c r="J466" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K466" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="467">
@@ -21458,10 +21458,10 @@
         <v>2</v>
       </c>
       <c r="J467" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K467" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="468">
@@ -21548,10 +21548,10 @@
         <v>9</v>
       </c>
       <c r="J469" t="n">
+        <v>3</v>
+      </c>
+      <c r="K469" t="n">
         <v>6</v>
-      </c>
-      <c r="K469" t="n">
-        <v>3</v>
       </c>
     </row>
     <row r="470">
@@ -21638,10 +21638,10 @@
         <v>4</v>
       </c>
       <c r="J471" t="n">
+        <v>2</v>
+      </c>
+      <c r="K471" t="n">
         <v>1</v>
-      </c>
-      <c r="K471" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="472">
@@ -21683,10 +21683,10 @@
         <v>2</v>
       </c>
       <c r="J472" t="n">
+        <v>8</v>
+      </c>
+      <c r="K472" t="n">
         <v>1</v>
-      </c>
-      <c r="K472" t="n">
-        <v>8</v>
       </c>
     </row>
     <row r="473">
@@ -21728,10 +21728,10 @@
         <v>3</v>
       </c>
       <c r="J473" t="n">
+        <v>2</v>
+      </c>
+      <c r="K473" t="n">
         <v>8</v>
-      </c>
-      <c r="K473" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="474">
@@ -21773,10 +21773,10 @@
         <v>2</v>
       </c>
       <c r="J474" t="n">
+        <v>9</v>
+      </c>
+      <c r="K474" t="n">
         <v>1</v>
-      </c>
-      <c r="K474" t="n">
-        <v>9</v>
       </c>
     </row>
     <row r="475">
@@ -21818,10 +21818,10 @@
         <v>4</v>
       </c>
       <c r="J475" t="n">
+        <v>4</v>
+      </c>
+      <c r="K475" t="n">
         <v>11</v>
-      </c>
-      <c r="K475" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="476">
@@ -21863,10 +21863,10 @@
         <v>7</v>
       </c>
       <c r="J476" t="n">
+        <v>4</v>
+      </c>
+      <c r="K476" t="n">
         <v>6</v>
-      </c>
-      <c r="K476" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="477">
@@ -21908,10 +21908,10 @@
         <v>9</v>
       </c>
       <c r="J477" t="n">
+        <v>1</v>
+      </c>
+      <c r="K477" t="n">
         <v>8</v>
-      </c>
-      <c r="K477" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="478">
@@ -21953,10 +21953,10 @@
         <v>8</v>
       </c>
       <c r="J478" t="n">
+        <v>0</v>
+      </c>
+      <c r="K478" t="n">
         <v>9</v>
-      </c>
-      <c r="K478" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="479">
@@ -21998,10 +21998,10 @@
         <v>9</v>
       </c>
       <c r="J479" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="K479" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="480">
@@ -22043,10 +22043,10 @@
         <v>7</v>
       </c>
       <c r="J480" t="n">
+        <v>4</v>
+      </c>
+      <c r="K480" t="n">
         <v>6</v>
-      </c>
-      <c r="K480" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="481">
@@ -22088,10 +22088,10 @@
         <v>5</v>
       </c>
       <c r="J481" t="n">
+        <v>5</v>
+      </c>
+      <c r="K481" t="n">
         <v>7</v>
-      </c>
-      <c r="K481" t="n">
-        <v>5</v>
       </c>
     </row>
     <row r="482">
@@ -22133,10 +22133,10 @@
         <v>4</v>
       </c>
       <c r="J482" t="n">
+        <v>4</v>
+      </c>
+      <c r="K482" t="n">
         <v>0</v>
-      </c>
-      <c r="K482" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="483">
@@ -22178,10 +22178,10 @@
         <v>4</v>
       </c>
       <c r="J483" t="n">
+        <v>4</v>
+      </c>
+      <c r="K483" t="n">
         <v>5</v>
-      </c>
-      <c r="K483" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="484">
@@ -22268,10 +22268,10 @@
         <v>6</v>
       </c>
       <c r="J485" t="n">
+        <v>1</v>
+      </c>
+      <c r="K485" t="n">
         <v>8</v>
-      </c>
-      <c r="K485" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="486">
@@ -22313,10 +22313,10 @@
         <v>6</v>
       </c>
       <c r="J486" t="n">
+        <v>3</v>
+      </c>
+      <c r="K486" t="n">
         <v>6</v>
-      </c>
-      <c r="K486" t="n">
-        <v>3</v>
       </c>
     </row>
     <row r="487">
@@ -22358,10 +22358,10 @@
         <v>2</v>
       </c>
       <c r="J487" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K487" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="488">
@@ -22403,10 +22403,10 @@
         <v>7</v>
       </c>
       <c r="J488" t="n">
+        <v>8</v>
+      </c>
+      <c r="K488" t="n">
         <v>0</v>
-      </c>
-      <c r="K488" t="n">
-        <v>8</v>
       </c>
     </row>
     <row r="489">
@@ -22448,10 +22448,10 @@
         <v>0</v>
       </c>
       <c r="J489" t="n">
+        <v>8</v>
+      </c>
+      <c r="K489" t="n">
         <v>0</v>
-      </c>
-      <c r="K489" t="n">
-        <v>8</v>
       </c>
     </row>
     <row r="490">
@@ -22493,10 +22493,10 @@
         <v>9</v>
       </c>
       <c r="J490" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K490" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="491">
@@ -22583,10 +22583,10 @@
         <v>12</v>
       </c>
       <c r="J492" t="n">
+        <v>0</v>
+      </c>
+      <c r="K492" t="n">
         <v>5</v>
-      </c>
-      <c r="K492" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="493">
@@ -22628,10 +22628,10 @@
         <v>6</v>
       </c>
       <c r="J493" t="n">
+        <v>1</v>
+      </c>
+      <c r="K493" t="n">
         <v>7</v>
-      </c>
-      <c r="K493" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="494">
@@ -22673,10 +22673,10 @@
         <v>7</v>
       </c>
       <c r="J494" t="n">
+        <v>4</v>
+      </c>
+      <c r="K494" t="n">
         <v>0</v>
-      </c>
-      <c r="K494" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="495">
@@ -22718,10 +22718,10 @@
         <v>4</v>
       </c>
       <c r="J495" t="n">
+        <v>11</v>
+      </c>
+      <c r="K495" t="n">
         <v>0</v>
-      </c>
-      <c r="K495" t="n">
-        <v>11</v>
       </c>
     </row>
     <row r="496">
@@ -22763,10 +22763,10 @@
         <v>5</v>
       </c>
       <c r="J496" t="n">
+        <v>4</v>
+      </c>
+      <c r="K496" t="n">
         <v>7</v>
-      </c>
-      <c r="K496" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="497">
@@ -22808,10 +22808,10 @@
         <v>8</v>
       </c>
       <c r="J497" t="n">
+        <v>4</v>
+      </c>
+      <c r="K497" t="n">
         <v>6</v>
-      </c>
-      <c r="K497" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="498">
@@ -22853,10 +22853,10 @@
         <v>5</v>
       </c>
       <c r="J498" t="n">
+        <v>4</v>
+      </c>
+      <c r="K498" t="n">
         <v>6</v>
-      </c>
-      <c r="K498" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="499">
@@ -22898,10 +22898,10 @@
         <v>9</v>
       </c>
       <c r="J499" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K499" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="500">
@@ -22943,10 +22943,10 @@
         <v>2</v>
       </c>
       <c r="J500" t="n">
+        <v>8</v>
+      </c>
+      <c r="K500" t="n">
         <v>1</v>
-      </c>
-      <c r="K500" t="n">
-        <v>8</v>
       </c>
     </row>
     <row r="501">
@@ -22988,10 +22988,10 @@
         <v>15</v>
       </c>
       <c r="J501" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K501" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="502">
@@ -23033,10 +23033,10 @@
         <v>6</v>
       </c>
       <c r="J502" t="n">
+        <v>4</v>
+      </c>
+      <c r="K502" t="n">
         <v>5</v>
-      </c>
-      <c r="K502" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="503">
@@ -23078,10 +23078,10 @@
         <v>3</v>
       </c>
       <c r="J503" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K503" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="504">
@@ -23168,10 +23168,10 @@
         <v>3</v>
       </c>
       <c r="J505" t="n">
+        <v>8</v>
+      </c>
+      <c r="K505" t="n">
         <v>0</v>
-      </c>
-      <c r="K505" t="n">
-        <v>8</v>
       </c>
     </row>
     <row r="506">
@@ -23213,10 +23213,10 @@
         <v>8</v>
       </c>
       <c r="J506" t="n">
+        <v>7</v>
+      </c>
+      <c r="K506" t="n">
         <v>3</v>
-      </c>
-      <c r="K506" t="n">
-        <v>7</v>
       </c>
     </row>
     <row r="507">
@@ -23258,10 +23258,10 @@
         <v>10</v>
       </c>
       <c r="J507" t="n">
+        <v>5</v>
+      </c>
+      <c r="K507" t="n">
         <v>0</v>
-      </c>
-      <c r="K507" t="n">
-        <v>5</v>
       </c>
     </row>
     <row r="508">
@@ -23303,10 +23303,10 @@
         <v>10</v>
       </c>
       <c r="J508" t="n">
+        <v>6</v>
+      </c>
+      <c r="K508" t="n">
         <v>0</v>
-      </c>
-      <c r="K508" t="n">
-        <v>6</v>
       </c>
     </row>
     <row r="509">
@@ -23348,10 +23348,10 @@
         <v>3</v>
       </c>
       <c r="J509" t="n">
+        <v>8</v>
+      </c>
+      <c r="K509" t="n">
         <v>1</v>
-      </c>
-      <c r="K509" t="n">
-        <v>8</v>
       </c>
     </row>
     <row r="510">
@@ -23393,10 +23393,10 @@
         <v>8</v>
       </c>
       <c r="J510" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K510" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="511">
@@ -23438,10 +23438,10 @@
         <v>6</v>
       </c>
       <c r="J511" t="n">
+        <v>2</v>
+      </c>
+      <c r="K511" t="n">
         <v>0</v>
-      </c>
-      <c r="K511" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="512">
@@ -23483,10 +23483,10 @@
         <v>10</v>
       </c>
       <c r="J512" t="n">
+        <v>2</v>
+      </c>
+      <c r="K512" t="n">
         <v>5</v>
-      </c>
-      <c r="K512" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="513">
@@ -23528,10 +23528,10 @@
         <v>6</v>
       </c>
       <c r="J513" t="n">
+        <v>1</v>
+      </c>
+      <c r="K513" t="n">
         <v>6</v>
-      </c>
-      <c r="K513" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="514">
@@ -23573,10 +23573,10 @@
         <v>7</v>
       </c>
       <c r="J514" t="n">
+        <v>0</v>
+      </c>
+      <c r="K514" t="n">
         <v>7</v>
-      </c>
-      <c r="K514" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="515">
@@ -23618,10 +23618,10 @@
         <v>7</v>
       </c>
       <c r="J515" t="n">
+        <v>2</v>
+      </c>
+      <c r="K515" t="n">
         <v>6</v>
-      </c>
-      <c r="K515" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="516">
@@ -23663,10 +23663,10 @@
         <v>6</v>
       </c>
       <c r="J516" t="n">
+        <v>2</v>
+      </c>
+      <c r="K516" t="n">
         <v>8</v>
-      </c>
-      <c r="K516" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="517">
@@ -23708,10 +23708,10 @@
         <v>5</v>
       </c>
       <c r="J517" t="n">
+        <v>4</v>
+      </c>
+      <c r="K517" t="n">
         <v>6</v>
-      </c>
-      <c r="K517" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="518">
@@ -23753,10 +23753,10 @@
         <v>3</v>
       </c>
       <c r="J518" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K518" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="519">
@@ -23798,10 +23798,10 @@
         <v>6</v>
       </c>
       <c r="J519" t="n">
+        <v>0</v>
+      </c>
+      <c r="K519" t="n">
         <v>8</v>
-      </c>
-      <c r="K519" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="520">
@@ -23843,10 +23843,10 @@
         <v>9</v>
       </c>
       <c r="J520" t="n">
+        <v>1</v>
+      </c>
+      <c r="K520" t="n">
         <v>8</v>
-      </c>
-      <c r="K520" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="521">
@@ -23888,10 +23888,10 @@
         <v>8</v>
       </c>
       <c r="J521" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="K521" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="522">
@@ -23978,10 +23978,10 @@
         <v>6</v>
       </c>
       <c r="J523" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K523" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="524">
@@ -24023,10 +24023,10 @@
         <v>7</v>
       </c>
       <c r="J524" t="n">
+        <v>1</v>
+      </c>
+      <c r="K524" t="n">
         <v>10</v>
-      </c>
-      <c r="K524" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="525">
@@ -24068,10 +24068,10 @@
         <v>6</v>
       </c>
       <c r="J525" t="n">
+        <v>2</v>
+      </c>
+      <c r="K525" t="n">
         <v>8</v>
-      </c>
-      <c r="K525" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="526">
@@ -24113,10 +24113,10 @@
         <v>7</v>
       </c>
       <c r="J526" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="K526" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="527">
@@ -24158,10 +24158,10 @@
         <v>11</v>
       </c>
       <c r="J527" t="n">
+        <v>0</v>
+      </c>
+      <c r="K527" t="n">
         <v>7</v>
-      </c>
-      <c r="K527" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="528">
@@ -24203,10 +24203,10 @@
         <v>10</v>
       </c>
       <c r="J528" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K528" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="529">
@@ -24248,10 +24248,10 @@
         <v>5</v>
       </c>
       <c r="J529" t="n">
+        <v>7</v>
+      </c>
+      <c r="K529" t="n">
         <v>1</v>
-      </c>
-      <c r="K529" t="n">
-        <v>7</v>
       </c>
     </row>
     <row r="530">
@@ -24338,10 +24338,10 @@
         <v>8</v>
       </c>
       <c r="J531" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K531" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="532">
@@ -24383,10 +24383,10 @@
         <v>1</v>
       </c>
       <c r="J532" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K532" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="533">
@@ -24428,10 +24428,10 @@
         <v>6</v>
       </c>
       <c r="J533" t="n">
+        <v>4</v>
+      </c>
+      <c r="K533" t="n">
         <v>3</v>
-      </c>
-      <c r="K533" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="534">
@@ -24473,10 +24473,10 @@
         <v>9</v>
       </c>
       <c r="J534" t="n">
+        <v>0</v>
+      </c>
+      <c r="K534" t="n">
         <v>8</v>
-      </c>
-      <c r="K534" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="535">
@@ -24518,10 +24518,10 @@
         <v>6</v>
       </c>
       <c r="J535" t="n">
+        <v>6</v>
+      </c>
+      <c r="K535" t="n">
         <v>0</v>
-      </c>
-      <c r="K535" t="n">
-        <v>6</v>
       </c>
     </row>
     <row r="536">
@@ -24563,10 +24563,10 @@
         <v>9</v>
       </c>
       <c r="J536" t="n">
+        <v>10</v>
+      </c>
+      <c r="K536" t="n">
         <v>0</v>
-      </c>
-      <c r="K536" t="n">
-        <v>10</v>
       </c>
     </row>
     <row r="537">
@@ -24653,10 +24653,10 @@
         <v>10</v>
       </c>
       <c r="J538" t="n">
+        <v>6</v>
+      </c>
+      <c r="K538" t="n">
         <v>0</v>
-      </c>
-      <c r="K538" t="n">
-        <v>6</v>
       </c>
     </row>
     <row r="539">
@@ -24698,10 +24698,10 @@
         <v>9</v>
       </c>
       <c r="J539" t="n">
+        <v>1</v>
+      </c>
+      <c r="K539" t="n">
         <v>5</v>
-      </c>
-      <c r="K539" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="540">
@@ -24743,10 +24743,10 @@
         <v>13</v>
       </c>
       <c r="J540" t="n">
+        <v>0</v>
+      </c>
+      <c r="K540" t="n">
         <v>12</v>
-      </c>
-      <c r="K540" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="541">
@@ -24788,10 +24788,10 @@
         <v>7</v>
       </c>
       <c r="J541" t="n">
+        <v>0</v>
+      </c>
+      <c r="K541" t="n">
         <v>7</v>
-      </c>
-      <c r="K541" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="542">
@@ -24833,10 +24833,10 @@
         <v>10</v>
       </c>
       <c r="J542" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="K542" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="543">
@@ -24878,10 +24878,10 @@
         <v>4</v>
       </c>
       <c r="J543" t="n">
+        <v>7</v>
+      </c>
+      <c r="K543" t="n">
         <v>0</v>
-      </c>
-      <c r="K543" t="n">
-        <v>7</v>
       </c>
     </row>
     <row r="544">
@@ -24923,10 +24923,10 @@
         <v>2</v>
       </c>
       <c r="J544" t="n">
+        <v>0</v>
+      </c>
+      <c r="K544" t="n">
         <v>7</v>
-      </c>
-      <c r="K544" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="545">
@@ -24968,10 +24968,10 @@
         <v>0</v>
       </c>
       <c r="J545" t="n">
+        <v>0</v>
+      </c>
+      <c r="K545" t="n">
         <v>9</v>
-      </c>
-      <c r="K545" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="546">
@@ -25013,10 +25013,10 @@
         <v>10</v>
       </c>
       <c r="J546" t="n">
+        <v>0</v>
+      </c>
+      <c r="K546" t="n">
         <v>6</v>
-      </c>
-      <c r="K546" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="547">
@@ -25103,10 +25103,10 @@
         <v>0</v>
       </c>
       <c r="J548" t="n">
+        <v>0</v>
+      </c>
+      <c r="K548" t="n">
         <v>8</v>
-      </c>
-      <c r="K548" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="549">
@@ -25148,10 +25148,10 @@
         <v>7</v>
       </c>
       <c r="J549" t="n">
+        <v>0</v>
+      </c>
+      <c r="K549" t="n">
         <v>6</v>
-      </c>
-      <c r="K549" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="550">
@@ -25193,10 +25193,10 @@
         <v>0</v>
       </c>
       <c r="J550" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K550" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="551">
@@ -25238,10 +25238,10 @@
         <v>5</v>
       </c>
       <c r="J551" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K551" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
